--- a/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_FALTAS - ATUALIZADO.xlsx
+++ b/trunk/Mapeamento P1/Felipe/Mapeamento Técnico - PRO_APURACAO_FALTAS - ATUALIZADO.xlsx
@@ -2642,24 +2642,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2678,6 +2660,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2686,6 +2677,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2711,16 +2711,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2753,16 +2750,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2771,17 +2777,23 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2801,35 +2813,17 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2843,8 +2837,20 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2855,14 +2861,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3032,7 +3032,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3055,14 +3055,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3105,7 +3105,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3128,14 +3128,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3145,61 +3145,6 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31746" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="361950" y="323850"/>
-          <a:ext cx="12801600" cy="5324475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3520,10 +3465,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="140" t="s">
+      <c r="C2" s="134" t="s">
         <v>212</v>
       </c>
-      <c r="D2" s="140"/>
+      <c r="D2" s="134"/>
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="14" t="s">
@@ -3610,86 +3555,94 @@
       <c r="C12" s="26">
         <v>41239</v>
       </c>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="129" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="138" t="s">
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="133"/>
-      <c r="J13" s="134"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="143"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="134"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="143"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="133"/>
-      <c r="J15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="143"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="133"/>
-      <c r="J16" s="134"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="143"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="131"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="130"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="131"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:J16"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:J12"/>
     <mergeCell ref="C2:D2"/>
@@ -3700,14 +3653,6 @@
     <mergeCell ref="B9:J10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:J16"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3771,39 +3716,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -4207,38 +4152,38 @@
       </c>
       <c r="L10" s="83"/>
       <c r="M10" s="83"/>
-      <c r="N10" s="200" t="s">
+      <c r="N10" s="196" t="s">
         <v>202</v>
       </c>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T10" s="197" t="s">
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T10" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="197" t="s">
+      <c r="U10" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="V10" s="197" t="s">
+      <c r="V10" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="197">
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="199">
         <v>30</v>
       </c>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="174"/>
+      <c r="Z10" s="176"/>
+      <c r="AA10" s="176"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
       <c r="AD10" s="67"/>
       <c r="AE10" s="67"/>
       <c r="AF10" s="67"/>
@@ -4276,30 +4221,30 @@
       </c>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="196"/>
-      <c r="X11" s="196"/>
-      <c r="Y11" s="198">
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="200"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="200"/>
+      <c r="W11" s="202"/>
+      <c r="X11" s="202"/>
+      <c r="Y11" s="200">
         <v>4</v>
       </c>
-      <c r="Z11" s="196"/>
-      <c r="AA11" s="196"/>
-      <c r="AB11" s="196"/>
-      <c r="AC11" s="196"/>
+      <c r="Z11" s="202"/>
+      <c r="AA11" s="202"/>
+      <c r="AB11" s="202"/>
+      <c r="AC11" s="202"/>
       <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
       <c r="AF11" s="67"/>
@@ -4337,30 +4282,30 @@
       </c>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="196"/>
-      <c r="Y12" s="198">
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="200"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="200">
         <v>4</v>
       </c>
-      <c r="Z12" s="196"/>
-      <c r="AA12" s="196"/>
-      <c r="AB12" s="196"/>
-      <c r="AC12" s="196"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="202"/>
+      <c r="AB12" s="202"/>
+      <c r="AC12" s="202"/>
       <c r="AD12" s="67"/>
       <c r="AE12" s="67"/>
       <c r="AF12" s="67"/>
@@ -4398,30 +4343,30 @@
       </c>
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="198">
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="200">
         <v>8</v>
       </c>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
       <c r="AF13" s="67"/>
@@ -4459,30 +4404,30 @@
       </c>
       <c r="L14" s="83"/>
       <c r="M14" s="83"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="198">
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="200">
         <v>1</v>
       </c>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
-      <c r="AC14" s="196"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
       <c r="AD14" s="67"/>
       <c r="AE14" s="67"/>
       <c r="AF14" s="67"/>
@@ -4520,30 +4465,30 @@
       </c>
       <c r="L15" s="83"/>
       <c r="M15" s="83"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="196"/>
-      <c r="X15" s="196"/>
-      <c r="Y15" s="198">
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" s="200"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="202"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="200">
         <v>1</v>
       </c>
-      <c r="Z15" s="196"/>
-      <c r="AA15" s="196"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="196"/>
+      <c r="Z15" s="202"/>
+      <c r="AA15" s="202"/>
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="202"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
       <c r="AF15" s="67"/>
@@ -4581,22 +4526,22 @@
       </c>
       <c r="L16" s="83"/>
       <c r="M16" s="83"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="198"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="198"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="198"/>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="196"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="200"/>
+      <c r="R16" s="200"/>
+      <c r="S16" s="200"/>
+      <c r="T16" s="200"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="202"/>
+      <c r="X16" s="202"/>
+      <c r="Y16" s="200"/>
+      <c r="Z16" s="202"/>
+      <c r="AA16" s="202"/>
+      <c r="AB16" s="202"/>
+      <c r="AC16" s="202"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="83" t="s">
@@ -4627,30 +4572,30 @@
       </c>
       <c r="L17" s="83"/>
       <c r="M17" s="83"/>
-      <c r="N17" s="202"/>
-      <c r="O17" s="202"/>
-      <c r="P17" s="202"/>
-      <c r="Q17" s="199" t="s">
-        <v>90</v>
-      </c>
-      <c r="R17" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="S17" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="T17" s="199"/>
-      <c r="U17" s="199"/>
-      <c r="V17" s="199"/>
-      <c r="W17" s="175"/>
-      <c r="X17" s="175"/>
-      <c r="Y17" s="199">
+      <c r="N17" s="198"/>
+      <c r="O17" s="198"/>
+      <c r="P17" s="198"/>
+      <c r="Q17" s="201" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="S17" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="T17" s="201"/>
+      <c r="U17" s="201"/>
+      <c r="V17" s="201"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="201">
         <v>6</v>
       </c>
-      <c r="Z17" s="175"/>
-      <c r="AA17" s="175"/>
-      <c r="AB17" s="175"/>
-      <c r="AC17" s="175"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
       <c r="AD17" s="67"/>
       <c r="AE17" s="67"/>
       <c r="AF17" s="67"/>
@@ -4688,38 +4633,38 @@
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83"/>
-      <c r="N18" s="200" t="s">
+      <c r="N18" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="O18" s="200"/>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S18" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T18" s="197" t="s">
+      <c r="O18" s="196"/>
+      <c r="P18" s="196"/>
+      <c r="Q18" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S18" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T18" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="U18" s="197" t="s">
+      <c r="U18" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="V18" s="197" t="s">
+      <c r="V18" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="197">
+      <c r="W18" s="176"/>
+      <c r="X18" s="176"/>
+      <c r="Y18" s="199">
         <v>15</v>
       </c>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
+      <c r="Z18" s="176"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
       <c r="AF18" s="67"/>
@@ -4757,30 +4702,30 @@
       </c>
       <c r="L19" s="62"/>
       <c r="M19" s="83"/>
-      <c r="N19" s="201"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="198"/>
-      <c r="S19" s="198"/>
-      <c r="T19" s="198" t="s">
+      <c r="N19" s="197"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="197"/>
+      <c r="Q19" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="200"/>
+      <c r="S19" s="200"/>
+      <c r="T19" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="U19" s="198" t="s">
+      <c r="U19" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="V19" s="198"/>
-      <c r="W19" s="196"/>
-      <c r="X19" s="196"/>
-      <c r="Y19" s="198">
+      <c r="V19" s="200"/>
+      <c r="W19" s="202"/>
+      <c r="X19" s="202"/>
+      <c r="Y19" s="200">
         <v>4</v>
       </c>
-      <c r="Z19" s="196"/>
-      <c r="AA19" s="196"/>
-      <c r="AB19" s="196"/>
-      <c r="AC19" s="196"/>
+      <c r="Z19" s="202"/>
+      <c r="AA19" s="202"/>
+      <c r="AB19" s="202"/>
+      <c r="AC19" s="202"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
@@ -4818,30 +4763,30 @@
       </c>
       <c r="L20" s="83"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="198"/>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198" t="s">
+      <c r="N20" s="197"/>
+      <c r="O20" s="197"/>
+      <c r="P20" s="197"/>
+      <c r="Q20" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="U20" s="198" t="s">
+      <c r="U20" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="V20" s="198"/>
-      <c r="W20" s="196"/>
-      <c r="X20" s="196"/>
-      <c r="Y20" s="198">
+      <c r="V20" s="200"/>
+      <c r="W20" s="202"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="200">
         <v>4</v>
       </c>
-      <c r="Z20" s="196"/>
-      <c r="AA20" s="196"/>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="196"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
       <c r="AD20" s="67"/>
       <c r="AE20" s="67"/>
       <c r="AF20" s="67"/>
@@ -4879,30 +4824,30 @@
       </c>
       <c r="L21" s="83"/>
       <c r="M21" s="83"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198" t="s">
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+      <c r="Q21" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="U21" s="198" t="s">
+      <c r="U21" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="V21" s="198"/>
-      <c r="W21" s="196"/>
-      <c r="X21" s="196"/>
-      <c r="Y21" s="198">
+      <c r="V21" s="200"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="200">
         <v>8</v>
       </c>
-      <c r="Z21" s="196"/>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="196"/>
-      <c r="AC21" s="196"/>
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
       <c r="AD21" s="67"/>
       <c r="AE21" s="67"/>
       <c r="AF21" s="67"/>
@@ -4940,30 +4885,30 @@
       </c>
       <c r="L22" s="62"/>
       <c r="M22" s="83"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="201"/>
-      <c r="Q22" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198" t="s">
+      <c r="N22" s="197"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="197"/>
+      <c r="Q22" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="U22" s="198" t="s">
+      <c r="U22" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="V22" s="198"/>
-      <c r="W22" s="196"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="198">
+      <c r="V22" s="200"/>
+      <c r="W22" s="202"/>
+      <c r="X22" s="202"/>
+      <c r="Y22" s="200">
         <v>1</v>
       </c>
-      <c r="Z22" s="196"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="196"/>
-      <c r="AC22" s="196"/>
+      <c r="Z22" s="202"/>
+      <c r="AA22" s="202"/>
+      <c r="AB22" s="202"/>
+      <c r="AC22" s="202"/>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
       <c r="AF22" s="67"/>
@@ -5001,30 +4946,30 @@
       </c>
       <c r="L23" s="64"/>
       <c r="M23" s="64"/>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="201"/>
-      <c r="Q23" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" s="198"/>
-      <c r="S23" s="198"/>
-      <c r="T23" s="198" t="s">
+      <c r="N23" s="197"/>
+      <c r="O23" s="197"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="U23" s="198" t="s">
+      <c r="U23" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="V23" s="198"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="198">
+      <c r="V23" s="200"/>
+      <c r="W23" s="202"/>
+      <c r="X23" s="202"/>
+      <c r="Y23" s="200">
         <v>100</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
+      <c r="Z23" s="202"/>
+      <c r="AA23" s="202"/>
+      <c r="AB23" s="202"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="67"/>
       <c r="AE23" s="67"/>
       <c r="AF23" s="67"/>
@@ -5062,22 +5007,22 @@
       </c>
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="202"/>
-      <c r="P24" s="202"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="199"/>
-      <c r="W24" s="175"/>
-      <c r="X24" s="175"/>
-      <c r="Y24" s="199"/>
-      <c r="Z24" s="175"/>
-      <c r="AA24" s="175"/>
-      <c r="AB24" s="175"/>
-      <c r="AC24" s="175"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="198"/>
+      <c r="P24" s="198"/>
+      <c r="Q24" s="201"/>
+      <c r="R24" s="201"/>
+      <c r="S24" s="201"/>
+      <c r="T24" s="201"/>
+      <c r="U24" s="201"/>
+      <c r="V24" s="201"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="201"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="177"/>
+      <c r="AC24" s="177"/>
       <c r="AD24" s="67"/>
       <c r="AE24" s="67"/>
       <c r="AF24" s="67"/>
@@ -5091,6 +5036,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="P10:P17"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N10:N17"/>
+    <mergeCell ref="Q10:Q17"/>
+    <mergeCell ref="R10:R17"/>
+    <mergeCell ref="T10:T17"/>
+    <mergeCell ref="V10:V17"/>
+    <mergeCell ref="W10:W17"/>
+    <mergeCell ref="X10:X17"/>
+    <mergeCell ref="Y10:Y17"/>
+    <mergeCell ref="Z10:Z17"/>
+    <mergeCell ref="P18:P24"/>
+    <mergeCell ref="S10:S17"/>
+    <mergeCell ref="S18:S24"/>
+    <mergeCell ref="U18:U24"/>
+    <mergeCell ref="U10:U17"/>
     <mergeCell ref="N18:N24"/>
     <mergeCell ref="Q18:Q24"/>
     <mergeCell ref="R18:R24"/>
@@ -5107,25 +5071,6 @@
     <mergeCell ref="T18:T24"/>
     <mergeCell ref="V18:V24"/>
     <mergeCell ref="O18:O24"/>
-    <mergeCell ref="P18:P24"/>
-    <mergeCell ref="S10:S17"/>
-    <mergeCell ref="S18:S24"/>
-    <mergeCell ref="U18:U24"/>
-    <mergeCell ref="U10:U17"/>
-    <mergeCell ref="O10:O17"/>
-    <mergeCell ref="P10:P17"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="N10:N17"/>
-    <mergeCell ref="Q10:Q17"/>
-    <mergeCell ref="R10:R17"/>
-    <mergeCell ref="T10:T17"/>
-    <mergeCell ref="V10:V17"/>
-    <mergeCell ref="W10:W17"/>
-    <mergeCell ref="X10:X17"/>
-    <mergeCell ref="Y10:Y17"/>
-    <mergeCell ref="Z10:Z17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -5190,39 +5135,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -5702,38 +5647,38 @@
       </c>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
-      <c r="N11" s="200" t="s">
+      <c r="N11" s="196" t="s">
         <v>202</v>
       </c>
       <c r="O11" s="64"/>
       <c r="P11" s="64"/>
-      <c r="Q11" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="197" t="s">
+      <c r="Q11" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="U11" s="197" t="s">
+      <c r="U11" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="V11" s="197" t="s">
+      <c r="V11" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="197">
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="199">
         <v>30</v>
       </c>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
       <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
       <c r="AF11" s="67"/>
@@ -5771,30 +5716,30 @@
       </c>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
-      <c r="N12" s="201"/>
+      <c r="N12" s="197"/>
       <c r="O12" s="65"/>
       <c r="P12" s="65"/>
-      <c r="Q12" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="196"/>
-      <c r="Y12" s="198">
+      <c r="Q12" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="200"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="200">
         <v>4</v>
       </c>
-      <c r="Z12" s="196"/>
-      <c r="AA12" s="196"/>
-      <c r="AB12" s="196"/>
-      <c r="AC12" s="196"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="202"/>
+      <c r="AB12" s="202"/>
+      <c r="AC12" s="202"/>
       <c r="AD12" s="67"/>
       <c r="AE12" s="67"/>
       <c r="AF12" s="67"/>
@@ -5832,30 +5777,30 @@
       </c>
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
-      <c r="N13" s="201"/>
+      <c r="N13" s="197"/>
       <c r="O13" s="64"/>
       <c r="P13" s="64"/>
-      <c r="Q13" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="198">
+      <c r="Q13" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="200">
         <v>4</v>
       </c>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
       <c r="AF13" s="67"/>
@@ -5893,30 +5838,30 @@
       </c>
       <c r="L14" s="83"/>
       <c r="M14" s="83"/>
-      <c r="N14" s="201"/>
+      <c r="N14" s="197"/>
       <c r="O14" s="65"/>
       <c r="P14" s="65"/>
-      <c r="Q14" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="198">
+      <c r="Q14" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="200">
         <v>8</v>
       </c>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
-      <c r="AC14" s="196"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
       <c r="AD14" s="67"/>
       <c r="AE14" s="67"/>
       <c r="AF14" s="67"/>
@@ -5954,30 +5899,30 @@
       </c>
       <c r="L15" s="83"/>
       <c r="M15" s="83"/>
-      <c r="N15" s="201"/>
+      <c r="N15" s="197"/>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="196"/>
-      <c r="X15" s="196"/>
-      <c r="Y15" s="198">
+      <c r="Q15" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" s="200"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="202"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="200">
         <v>1</v>
       </c>
-      <c r="Z15" s="196"/>
-      <c r="AA15" s="196"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="196"/>
+      <c r="Z15" s="202"/>
+      <c r="AA15" s="202"/>
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="202"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
       <c r="AF15" s="67"/>
@@ -6015,30 +5960,30 @@
       </c>
       <c r="L16" s="83"/>
       <c r="M16" s="83"/>
-      <c r="N16" s="201"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="64"/>
       <c r="P16" s="64"/>
-      <c r="Q16" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R16" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S16" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="198">
+      <c r="Q16" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S16" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T16" s="200"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="202"/>
+      <c r="X16" s="202"/>
+      <c r="Y16" s="200">
         <v>1</v>
       </c>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="196"/>
+      <c r="Z16" s="202"/>
+      <c r="AA16" s="202"/>
+      <c r="AB16" s="202"/>
+      <c r="AC16" s="202"/>
       <c r="AD16" s="67"/>
       <c r="AE16" s="67"/>
       <c r="AF16" s="67"/>
@@ -6076,28 +6021,28 @@
       </c>
       <c r="L17" s="83"/>
       <c r="M17" s="83"/>
-      <c r="N17" s="201"/>
+      <c r="N17" s="197"/>
       <c r="O17" s="92"/>
       <c r="P17" s="92"/>
-      <c r="Q17" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R17" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S17" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T17" s="198"/>
-      <c r="U17" s="198"/>
-      <c r="V17" s="198"/>
-      <c r="W17" s="196"/>
-      <c r="X17" s="196"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="196"/>
-      <c r="AA17" s="196"/>
-      <c r="AB17" s="196"/>
-      <c r="AC17" s="196"/>
+      <c r="Q17" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S17" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T17" s="200"/>
+      <c r="U17" s="200"/>
+      <c r="V17" s="200"/>
+      <c r="W17" s="202"/>
+      <c r="X17" s="202"/>
+      <c r="Y17" s="200"/>
+      <c r="Z17" s="202"/>
+      <c r="AA17" s="202"/>
+      <c r="AB17" s="202"/>
+      <c r="AC17" s="202"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="83" t="s">
@@ -6128,30 +6073,30 @@
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83"/>
-      <c r="N18" s="202"/>
+      <c r="N18" s="198"/>
       <c r="O18" s="64"/>
       <c r="P18" s="64"/>
-      <c r="Q18" s="199" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="S18" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="T18" s="199"/>
-      <c r="U18" s="199"/>
-      <c r="V18" s="199"/>
-      <c r="W18" s="175"/>
-      <c r="X18" s="175"/>
-      <c r="Y18" s="199">
+      <c r="Q18" s="201" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="S18" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="T18" s="201"/>
+      <c r="U18" s="201"/>
+      <c r="V18" s="201"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="201">
         <v>6</v>
       </c>
-      <c r="Z18" s="175"/>
-      <c r="AA18" s="175"/>
-      <c r="AB18" s="175"/>
-      <c r="AC18" s="175"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
       <c r="AF18" s="67"/>
@@ -6189,38 +6134,38 @@
       </c>
       <c r="L19" s="83"/>
       <c r="M19" s="83"/>
-      <c r="N19" s="200" t="s">
+      <c r="N19" s="196" t="s">
         <v>203</v>
       </c>
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
-      <c r="Q19" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S19" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T19" s="197" t="s">
+      <c r="Q19" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S19" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T19" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="U19" s="197" t="s">
+      <c r="U19" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="V19" s="197" t="s">
+      <c r="V19" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="197">
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="199">
         <v>15</v>
       </c>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
+      <c r="Z19" s="176"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="176"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
@@ -6258,34 +6203,34 @@
       </c>
       <c r="L20" s="62"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="201"/>
+      <c r="N20" s="197"/>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S20" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T20" s="198" t="s">
+      <c r="Q20" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S20" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T20" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="U20" s="198" t="s">
+      <c r="U20" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="V20" s="198"/>
-      <c r="W20" s="196"/>
-      <c r="X20" s="196"/>
-      <c r="Y20" s="198">
+      <c r="V20" s="200"/>
+      <c r="W20" s="202"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="200">
         <v>4</v>
       </c>
-      <c r="Z20" s="196"/>
-      <c r="AA20" s="196"/>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="196"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
       <c r="AD20" s="67"/>
       <c r="AE20" s="67"/>
       <c r="AF20" s="67"/>
@@ -6323,34 +6268,34 @@
       </c>
       <c r="L21" s="83"/>
       <c r="M21" s="83"/>
-      <c r="N21" s="201"/>
+      <c r="N21" s="197"/>
       <c r="O21" s="64"/>
       <c r="P21" s="64"/>
-      <c r="Q21" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S21" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T21" s="198" t="s">
+      <c r="Q21" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S21" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T21" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="U21" s="198" t="s">
+      <c r="U21" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="V21" s="198"/>
-      <c r="W21" s="196"/>
-      <c r="X21" s="196"/>
-      <c r="Y21" s="198">
+      <c r="V21" s="200"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="200">
         <v>4</v>
       </c>
-      <c r="Z21" s="196"/>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="196"/>
-      <c r="AC21" s="196"/>
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
       <c r="AD21" s="67"/>
       <c r="AE21" s="67"/>
       <c r="AF21" s="67"/>
@@ -6388,34 +6333,34 @@
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83"/>
-      <c r="N22" s="201"/>
+      <c r="N22" s="197"/>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S22" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T22" s="198" t="s">
+      <c r="Q22" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S22" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T22" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="U22" s="198" t="s">
+      <c r="U22" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="V22" s="198"/>
-      <c r="W22" s="196"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="198">
+      <c r="V22" s="200"/>
+      <c r="W22" s="202"/>
+      <c r="X22" s="202"/>
+      <c r="Y22" s="200">
         <v>8</v>
       </c>
-      <c r="Z22" s="196"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="196"/>
-      <c r="AC22" s="196"/>
+      <c r="Z22" s="202"/>
+      <c r="AA22" s="202"/>
+      <c r="AB22" s="202"/>
+      <c r="AC22" s="202"/>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
       <c r="AF22" s="67"/>
@@ -6453,34 +6398,34 @@
       </c>
       <c r="L23" s="62"/>
       <c r="M23" s="83"/>
-      <c r="N23" s="201"/>
+      <c r="N23" s="197"/>
       <c r="O23" s="65"/>
       <c r="P23" s="65"/>
-      <c r="Q23" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S23" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T23" s="198" t="s">
+      <c r="Q23" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S23" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T23" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="U23" s="198" t="s">
+      <c r="U23" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="198"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="198">
+      <c r="V23" s="200"/>
+      <c r="W23" s="202"/>
+      <c r="X23" s="202"/>
+      <c r="Y23" s="200">
         <v>1</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
+      <c r="Z23" s="202"/>
+      <c r="AA23" s="202"/>
+      <c r="AB23" s="202"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="67"/>
       <c r="AE23" s="67"/>
       <c r="AF23" s="67"/>
@@ -6518,34 +6463,34 @@
       </c>
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
-      <c r="N24" s="201"/>
+      <c r="N24" s="197"/>
       <c r="O24" s="64"/>
       <c r="P24" s="64"/>
-      <c r="Q24" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R24" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S24" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T24" s="198" t="s">
+      <c r="Q24" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R24" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S24" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T24" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="U24" s="198" t="s">
+      <c r="U24" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="V24" s="198"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="198">
+      <c r="V24" s="200"/>
+      <c r="W24" s="202"/>
+      <c r="X24" s="202"/>
+      <c r="Y24" s="200">
         <v>100</v>
       </c>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="196"/>
-      <c r="AC24" s="196"/>
+      <c r="Z24" s="202"/>
+      <c r="AA24" s="202"/>
+      <c r="AB24" s="202"/>
+      <c r="AC24" s="202"/>
       <c r="AD24" s="67"/>
       <c r="AE24" s="67"/>
       <c r="AF24" s="67"/>
@@ -6583,28 +6528,28 @@
       </c>
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
-      <c r="N25" s="202"/>
+      <c r="N25" s="198"/>
       <c r="O25" s="64"/>
       <c r="P25" s="64"/>
-      <c r="Q25" s="199" t="s">
-        <v>90</v>
-      </c>
-      <c r="R25" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="S25" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="T25" s="199"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="199"/>
-      <c r="W25" s="175"/>
-      <c r="X25" s="175"/>
-      <c r="Y25" s="199"/>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="175"/>
-      <c r="AB25" s="175"/>
-      <c r="AC25" s="175"/>
+      <c r="Q25" s="201" t="s">
+        <v>90</v>
+      </c>
+      <c r="R25" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="S25" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="T25" s="201"/>
+      <c r="U25" s="201"/>
+      <c r="V25" s="201"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="201"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
       <c r="AD25" s="67"/>
       <c r="AE25" s="67"/>
       <c r="AF25" s="67"/>
@@ -6618,21 +6563,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="AC11:AC18"/>
-    <mergeCell ref="AC19:AC25"/>
-    <mergeCell ref="W19:W25"/>
-    <mergeCell ref="X19:X25"/>
-    <mergeCell ref="Y19:Y25"/>
-    <mergeCell ref="Z19:Z25"/>
-    <mergeCell ref="AA19:AA25"/>
-    <mergeCell ref="AB19:AB25"/>
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="Q19:Q25"/>
-    <mergeCell ref="R19:R25"/>
-    <mergeCell ref="T19:T25"/>
-    <mergeCell ref="V19:V25"/>
-    <mergeCell ref="S19:S25"/>
-    <mergeCell ref="U19:U25"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -6649,6 +6579,21 @@
     <mergeCell ref="AB11:AB18"/>
     <mergeCell ref="S11:S18"/>
     <mergeCell ref="U11:U18"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="Q19:Q25"/>
+    <mergeCell ref="R19:R25"/>
+    <mergeCell ref="T19:T25"/>
+    <mergeCell ref="V19:V25"/>
+    <mergeCell ref="S19:S25"/>
+    <mergeCell ref="U19:U25"/>
+    <mergeCell ref="AC11:AC18"/>
+    <mergeCell ref="AC19:AC25"/>
+    <mergeCell ref="W19:W25"/>
+    <mergeCell ref="X19:X25"/>
+    <mergeCell ref="Y19:Y25"/>
+    <mergeCell ref="Z19:Z25"/>
+    <mergeCell ref="AA19:AA25"/>
+    <mergeCell ref="AB19:AB25"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6713,39 +6658,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -7221,38 +7166,38 @@
       </c>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
-      <c r="N11" s="200" t="s">
+      <c r="N11" s="196" t="s">
         <v>202</v>
       </c>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="197" t="s">
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="U11" s="197" t="s">
+      <c r="U11" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="V11" s="197" t="s">
+      <c r="V11" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="197">
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="199">
         <v>30</v>
       </c>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
       <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
       <c r="AF11" s="67"/>
@@ -7290,30 +7235,30 @@
       </c>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="196"/>
-      <c r="Y12" s="198">
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="200"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="200">
         <v>4</v>
       </c>
-      <c r="Z12" s="196"/>
-      <c r="AA12" s="196"/>
-      <c r="AB12" s="196"/>
-      <c r="AC12" s="196"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="202"/>
+      <c r="AB12" s="202"/>
+      <c r="AC12" s="202"/>
       <c r="AD12" s="67"/>
       <c r="AE12" s="67"/>
       <c r="AF12" s="67"/>
@@ -7351,30 +7296,30 @@
       </c>
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="198">
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="200">
         <v>4</v>
       </c>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
       <c r="AF13" s="67"/>
@@ -7412,30 +7357,30 @@
       </c>
       <c r="L14" s="83"/>
       <c r="M14" s="83"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="198">
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="200">
         <v>8</v>
       </c>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
-      <c r="AC14" s="196"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
       <c r="AD14" s="67"/>
       <c r="AE14" s="67"/>
       <c r="AF14" s="67"/>
@@ -7473,30 +7418,30 @@
       </c>
       <c r="L15" s="83"/>
       <c r="M15" s="83"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="196"/>
-      <c r="X15" s="196"/>
-      <c r="Y15" s="198">
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" s="200"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="202"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="200">
         <v>1</v>
       </c>
-      <c r="Z15" s="196"/>
-      <c r="AA15" s="196"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="196"/>
+      <c r="Z15" s="202"/>
+      <c r="AA15" s="202"/>
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="202"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
       <c r="AF15" s="67"/>
@@ -7534,30 +7479,30 @@
       </c>
       <c r="L16" s="83"/>
       <c r="M16" s="83"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R16" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S16" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="198">
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S16" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T16" s="200"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="202"/>
+      <c r="X16" s="202"/>
+      <c r="Y16" s="200">
         <v>1</v>
       </c>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="196"/>
+      <c r="Z16" s="202"/>
+      <c r="AA16" s="202"/>
+      <c r="AB16" s="202"/>
+      <c r="AC16" s="202"/>
       <c r="AD16" s="67"/>
       <c r="AE16" s="67"/>
       <c r="AF16" s="67"/>
@@ -7595,22 +7540,22 @@
       </c>
       <c r="L17" s="83"/>
       <c r="M17" s="83"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="198"/>
-      <c r="R17" s="198"/>
-      <c r="S17" s="198"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="198"/>
-      <c r="V17" s="198"/>
-      <c r="W17" s="196"/>
-      <c r="X17" s="196"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="196"/>
-      <c r="AA17" s="196"/>
-      <c r="AB17" s="196"/>
-      <c r="AC17" s="196"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="197"/>
+      <c r="P17" s="197"/>
+      <c r="Q17" s="200"/>
+      <c r="R17" s="200"/>
+      <c r="S17" s="200"/>
+      <c r="T17" s="200"/>
+      <c r="U17" s="200"/>
+      <c r="V17" s="200"/>
+      <c r="W17" s="202"/>
+      <c r="X17" s="202"/>
+      <c r="Y17" s="200"/>
+      <c r="Z17" s="202"/>
+      <c r="AA17" s="202"/>
+      <c r="AB17" s="202"/>
+      <c r="AC17" s="202"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="83" t="s">
@@ -7641,30 +7586,30 @@
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83"/>
-      <c r="N18" s="202"/>
-      <c r="O18" s="202"/>
-      <c r="P18" s="202"/>
-      <c r="Q18" s="199" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="S18" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="T18" s="199"/>
-      <c r="U18" s="199"/>
-      <c r="V18" s="199"/>
-      <c r="W18" s="175"/>
-      <c r="X18" s="175"/>
-      <c r="Y18" s="199">
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="198"/>
+      <c r="Q18" s="201" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="S18" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="T18" s="201"/>
+      <c r="U18" s="201"/>
+      <c r="V18" s="201"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="201">
         <v>6</v>
       </c>
-      <c r="Z18" s="175"/>
-      <c r="AA18" s="175"/>
-      <c r="AB18" s="175"/>
-      <c r="AC18" s="175"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
       <c r="AF18" s="67"/>
@@ -7702,38 +7647,38 @@
       </c>
       <c r="L19" s="83"/>
       <c r="M19" s="83"/>
-      <c r="N19" s="200" t="s">
+      <c r="N19" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="O19" s="200"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S19" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T19" s="197" t="s">
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S19" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T19" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="U19" s="197" t="s">
+      <c r="U19" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="V19" s="197" t="s">
+      <c r="V19" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="197">
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="199">
         <v>15</v>
       </c>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
+      <c r="Z19" s="176"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="176"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
@@ -7771,30 +7716,30 @@
       </c>
       <c r="L20" s="62"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="198"/>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198" t="s">
+      <c r="N20" s="197"/>
+      <c r="O20" s="197"/>
+      <c r="P20" s="197"/>
+      <c r="Q20" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="U20" s="198" t="s">
+      <c r="U20" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="V20" s="198"/>
-      <c r="W20" s="196"/>
-      <c r="X20" s="196"/>
-      <c r="Y20" s="198">
+      <c r="V20" s="200"/>
+      <c r="W20" s="202"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="200">
         <v>4</v>
       </c>
-      <c r="Z20" s="196"/>
-      <c r="AA20" s="196"/>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="196"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
       <c r="AD20" s="67"/>
       <c r="AE20" s="67"/>
       <c r="AF20" s="67"/>
@@ -7832,30 +7777,30 @@
       </c>
       <c r="L21" s="83"/>
       <c r="M21" s="83"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198" t="s">
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+      <c r="Q21" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="U21" s="198" t="s">
+      <c r="U21" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="V21" s="198"/>
-      <c r="W21" s="196"/>
-      <c r="X21" s="196"/>
-      <c r="Y21" s="198">
+      <c r="V21" s="200"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="200">
         <v>4</v>
       </c>
-      <c r="Z21" s="196"/>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="196"/>
-      <c r="AC21" s="196"/>
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
       <c r="AD21" s="67"/>
       <c r="AE21" s="67"/>
       <c r="AF21" s="67"/>
@@ -7893,30 +7838,30 @@
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="201"/>
-      <c r="Q22" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198" t="s">
+      <c r="N22" s="197"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="197"/>
+      <c r="Q22" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="U22" s="198" t="s">
+      <c r="U22" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="V22" s="198"/>
-      <c r="W22" s="196"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="198">
+      <c r="V22" s="200"/>
+      <c r="W22" s="202"/>
+      <c r="X22" s="202"/>
+      <c r="Y22" s="200">
         <v>8</v>
       </c>
-      <c r="Z22" s="196"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="196"/>
-      <c r="AC22" s="196"/>
+      <c r="Z22" s="202"/>
+      <c r="AA22" s="202"/>
+      <c r="AB22" s="202"/>
+      <c r="AC22" s="202"/>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
       <c r="AF22" s="67"/>
@@ -7954,30 +7899,30 @@
       </c>
       <c r="L23" s="62"/>
       <c r="M23" s="83"/>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="201"/>
-      <c r="Q23" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" s="198"/>
-      <c r="S23" s="198"/>
-      <c r="T23" s="198" t="s">
+      <c r="N23" s="197"/>
+      <c r="O23" s="197"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="U23" s="198" t="s">
+      <c r="U23" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="198"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="198">
+      <c r="V23" s="200"/>
+      <c r="W23" s="202"/>
+      <c r="X23" s="202"/>
+      <c r="Y23" s="200">
         <v>1</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
+      <c r="Z23" s="202"/>
+      <c r="AA23" s="202"/>
+      <c r="AB23" s="202"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="67"/>
       <c r="AE23" s="67"/>
       <c r="AF23" s="67"/>
@@ -8015,30 +7960,30 @@
       </c>
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R24" s="198"/>
-      <c r="S24" s="198"/>
-      <c r="T24" s="198" t="s">
+      <c r="N24" s="197"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
+      <c r="Q24" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="U24" s="198" t="s">
+      <c r="U24" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="V24" s="198"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="198">
+      <c r="V24" s="200"/>
+      <c r="W24" s="202"/>
+      <c r="X24" s="202"/>
+      <c r="Y24" s="200">
         <v>100</v>
       </c>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="196"/>
-      <c r="AC24" s="196"/>
+      <c r="Z24" s="202"/>
+      <c r="AA24" s="202"/>
+      <c r="AB24" s="202"/>
+      <c r="AC24" s="202"/>
       <c r="AD24" s="67"/>
       <c r="AE24" s="67"/>
       <c r="AF24" s="67"/>
@@ -8076,22 +8021,22 @@
       </c>
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="202"/>
-      <c r="P25" s="202"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="199"/>
-      <c r="W25" s="175"/>
-      <c r="X25" s="175"/>
-      <c r="Y25" s="199"/>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="175"/>
-      <c r="AB25" s="175"/>
-      <c r="AC25" s="175"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="198"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+      <c r="S25" s="201"/>
+      <c r="T25" s="201"/>
+      <c r="U25" s="201"/>
+      <c r="V25" s="201"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="201"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
       <c r="AD25" s="67"/>
       <c r="AE25" s="67"/>
       <c r="AF25" s="67"/>
@@ -8105,6 +8050,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="O11:O18"/>
+    <mergeCell ref="P11:P18"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N11:N18"/>
+    <mergeCell ref="Q11:Q18"/>
+    <mergeCell ref="R11:R18"/>
+    <mergeCell ref="T11:T18"/>
+    <mergeCell ref="V11:V18"/>
+    <mergeCell ref="W11:W18"/>
+    <mergeCell ref="X11:X18"/>
+    <mergeCell ref="Y11:Y18"/>
+    <mergeCell ref="Z11:Z18"/>
+    <mergeCell ref="P19:P25"/>
+    <mergeCell ref="S11:S18"/>
+    <mergeCell ref="U11:U18"/>
+    <mergeCell ref="S19:S25"/>
+    <mergeCell ref="U19:U25"/>
     <mergeCell ref="N19:N25"/>
     <mergeCell ref="Q19:Q25"/>
     <mergeCell ref="R19:R25"/>
@@ -8121,25 +8085,6 @@
     <mergeCell ref="T19:T25"/>
     <mergeCell ref="V19:V25"/>
     <mergeCell ref="O19:O25"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="S11:S18"/>
-    <mergeCell ref="U11:U18"/>
-    <mergeCell ref="S19:S25"/>
-    <mergeCell ref="U19:U25"/>
-    <mergeCell ref="O11:O18"/>
-    <mergeCell ref="P11:P18"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="N11:N18"/>
-    <mergeCell ref="Q11:Q18"/>
-    <mergeCell ref="R11:R18"/>
-    <mergeCell ref="T11:T18"/>
-    <mergeCell ref="V11:V18"/>
-    <mergeCell ref="W11:W18"/>
-    <mergeCell ref="X11:X18"/>
-    <mergeCell ref="Y11:Y18"/>
-    <mergeCell ref="Z11:Z18"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8204,39 +8149,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -8712,38 +8657,38 @@
       </c>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
-      <c r="N11" s="200" t="s">
+      <c r="N11" s="196" t="s">
         <v>202</v>
       </c>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="197" t="s">
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="U11" s="197" t="s">
+      <c r="U11" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="V11" s="197" t="s">
+      <c r="V11" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="197">
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="199">
         <v>30</v>
       </c>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
       <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
       <c r="AF11" s="67"/>
@@ -8781,24 +8726,24 @@
       </c>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="198"/>
-      <c r="R12" s="198"/>
-      <c r="S12" s="198"/>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="196"/>
-      <c r="Y12" s="198">
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="200"/>
+      <c r="R12" s="200"/>
+      <c r="S12" s="200"/>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="200"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="200">
         <v>4</v>
       </c>
-      <c r="Z12" s="196"/>
-      <c r="AA12" s="196"/>
-      <c r="AB12" s="196"/>
-      <c r="AC12" s="196"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="202"/>
+      <c r="AB12" s="202"/>
+      <c r="AC12" s="202"/>
       <c r="AD12" s="67"/>
       <c r="AE12" s="67"/>
       <c r="AF12" s="67"/>
@@ -8836,24 +8781,24 @@
       </c>
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="198"/>
-      <c r="R13" s="198"/>
-      <c r="S13" s="198"/>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="198">
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="200"/>
+      <c r="R13" s="200"/>
+      <c r="S13" s="200"/>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="200">
         <v>4</v>
       </c>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
       <c r="AF13" s="67"/>
@@ -8891,24 +8836,24 @@
       </c>
       <c r="L14" s="83"/>
       <c r="M14" s="83"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="198"/>
-      <c r="R14" s="198"/>
-      <c r="S14" s="198"/>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="198">
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="200"/>
+      <c r="R14" s="200"/>
+      <c r="S14" s="200"/>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="200">
         <v>8</v>
       </c>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
-      <c r="AC14" s="196"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
       <c r="AD14" s="67"/>
       <c r="AE14" s="67"/>
       <c r="AF14" s="67"/>
@@ -8946,24 +8891,24 @@
       </c>
       <c r="L15" s="83"/>
       <c r="M15" s="83"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="198"/>
-      <c r="R15" s="198"/>
-      <c r="S15" s="198"/>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="196"/>
-      <c r="X15" s="196"/>
-      <c r="Y15" s="198">
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="200"/>
+      <c r="R15" s="200"/>
+      <c r="S15" s="200"/>
+      <c r="T15" s="200"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="202"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="200">
         <v>1</v>
       </c>
-      <c r="Z15" s="196"/>
-      <c r="AA15" s="196"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="196"/>
+      <c r="Z15" s="202"/>
+      <c r="AA15" s="202"/>
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="202"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
       <c r="AF15" s="67"/>
@@ -9001,24 +8946,24 @@
       </c>
       <c r="L16" s="83"/>
       <c r="M16" s="83"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="198"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="198"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="198">
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="200"/>
+      <c r="R16" s="200"/>
+      <c r="S16" s="200"/>
+      <c r="T16" s="200"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="202"/>
+      <c r="X16" s="202"/>
+      <c r="Y16" s="200">
         <v>1</v>
       </c>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="196"/>
+      <c r="Z16" s="202"/>
+      <c r="AA16" s="202"/>
+      <c r="AB16" s="202"/>
+      <c r="AC16" s="202"/>
       <c r="AD16" s="67"/>
       <c r="AE16" s="67"/>
       <c r="AF16" s="67"/>
@@ -9056,22 +9001,22 @@
       </c>
       <c r="L17" s="83"/>
       <c r="M17" s="83"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="198"/>
-      <c r="R17" s="198"/>
-      <c r="S17" s="198"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="198"/>
-      <c r="V17" s="198"/>
-      <c r="W17" s="196"/>
-      <c r="X17" s="196"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="196"/>
-      <c r="AA17" s="196"/>
-      <c r="AB17" s="196"/>
-      <c r="AC17" s="196"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="197"/>
+      <c r="P17" s="197"/>
+      <c r="Q17" s="200"/>
+      <c r="R17" s="200"/>
+      <c r="S17" s="200"/>
+      <c r="T17" s="200"/>
+      <c r="U17" s="200"/>
+      <c r="V17" s="200"/>
+      <c r="W17" s="202"/>
+      <c r="X17" s="202"/>
+      <c r="Y17" s="200"/>
+      <c r="Z17" s="202"/>
+      <c r="AA17" s="202"/>
+      <c r="AB17" s="202"/>
+      <c r="AC17" s="202"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="83" t="s">
@@ -9102,24 +9047,24 @@
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83"/>
-      <c r="N18" s="202"/>
-      <c r="O18" s="202"/>
-      <c r="P18" s="202"/>
-      <c r="Q18" s="199"/>
-      <c r="R18" s="199"/>
-      <c r="S18" s="199"/>
-      <c r="T18" s="199"/>
-      <c r="U18" s="199"/>
-      <c r="V18" s="199"/>
-      <c r="W18" s="175"/>
-      <c r="X18" s="175"/>
-      <c r="Y18" s="199">
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="198"/>
+      <c r="Q18" s="201"/>
+      <c r="R18" s="201"/>
+      <c r="S18" s="201"/>
+      <c r="T18" s="201"/>
+      <c r="U18" s="201"/>
+      <c r="V18" s="201"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="201">
         <v>6</v>
       </c>
-      <c r="Z18" s="175"/>
-      <c r="AA18" s="175"/>
-      <c r="AB18" s="175"/>
-      <c r="AC18" s="175"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
       <c r="AF18" s="67"/>
@@ -9157,38 +9102,38 @@
       </c>
       <c r="L19" s="83"/>
       <c r="M19" s="83"/>
-      <c r="N19" s="200" t="s">
+      <c r="N19" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="O19" s="200"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S19" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T19" s="197" t="s">
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S19" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T19" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="U19" s="197" t="s">
+      <c r="U19" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="V19" s="197" t="s">
+      <c r="V19" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="197">
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="199">
         <v>15</v>
       </c>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
+      <c r="Z19" s="176"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="176"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
@@ -9226,28 +9171,28 @@
       </c>
       <c r="L20" s="62"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="198"/>
-      <c r="R20" s="198"/>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198" t="s">
+      <c r="N20" s="197"/>
+      <c r="O20" s="197"/>
+      <c r="P20" s="197"/>
+      <c r="Q20" s="200"/>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="U20" s="198" t="s">
+      <c r="U20" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="V20" s="198"/>
-      <c r="W20" s="196"/>
-      <c r="X20" s="196"/>
-      <c r="Y20" s="198">
+      <c r="V20" s="200"/>
+      <c r="W20" s="202"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="200">
         <v>4</v>
       </c>
-      <c r="Z20" s="196"/>
-      <c r="AA20" s="196"/>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="196"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
       <c r="AD20" s="67"/>
       <c r="AE20" s="67"/>
       <c r="AF20" s="67"/>
@@ -9285,28 +9230,28 @@
       </c>
       <c r="L21" s="83"/>
       <c r="M21" s="83"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="198"/>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198" t="s">
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+      <c r="Q21" s="200"/>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="U21" s="198" t="s">
+      <c r="U21" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="V21" s="198"/>
-      <c r="W21" s="196"/>
-      <c r="X21" s="196"/>
-      <c r="Y21" s="198">
+      <c r="V21" s="200"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="200">
         <v>4</v>
       </c>
-      <c r="Z21" s="196"/>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="196"/>
-      <c r="AC21" s="196"/>
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
       <c r="AD21" s="67"/>
       <c r="AE21" s="67"/>
       <c r="AF21" s="67"/>
@@ -9344,28 +9289,28 @@
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="201"/>
-      <c r="Q22" s="198"/>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198" t="s">
+      <c r="N22" s="197"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="197"/>
+      <c r="Q22" s="200"/>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="U22" s="198" t="s">
+      <c r="U22" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="V22" s="198"/>
-      <c r="W22" s="196"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="198">
+      <c r="V22" s="200"/>
+      <c r="W22" s="202"/>
+      <c r="X22" s="202"/>
+      <c r="Y22" s="200">
         <v>8</v>
       </c>
-      <c r="Z22" s="196"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="196"/>
-      <c r="AC22" s="196"/>
+      <c r="Z22" s="202"/>
+      <c r="AA22" s="202"/>
+      <c r="AB22" s="202"/>
+      <c r="AC22" s="202"/>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
       <c r="AF22" s="67"/>
@@ -9403,28 +9348,28 @@
       </c>
       <c r="L23" s="62"/>
       <c r="M23" s="83"/>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="201"/>
-      <c r="Q23" s="198"/>
-      <c r="R23" s="198"/>
-      <c r="S23" s="198"/>
-      <c r="T23" s="198" t="s">
+      <c r="N23" s="197"/>
+      <c r="O23" s="197"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="200"/>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="U23" s="198" t="s">
+      <c r="U23" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="198"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="198">
+      <c r="V23" s="200"/>
+      <c r="W23" s="202"/>
+      <c r="X23" s="202"/>
+      <c r="Y23" s="200">
         <v>1</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
+      <c r="Z23" s="202"/>
+      <c r="AA23" s="202"/>
+      <c r="AB23" s="202"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="67"/>
       <c r="AE23" s="67"/>
       <c r="AF23" s="67"/>
@@ -9462,28 +9407,28 @@
       </c>
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="198"/>
-      <c r="R24" s="198"/>
-      <c r="S24" s="198"/>
-      <c r="T24" s="198" t="s">
+      <c r="N24" s="197"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
+      <c r="Q24" s="200"/>
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="U24" s="198" t="s">
+      <c r="U24" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="V24" s="198"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="198">
+      <c r="V24" s="200"/>
+      <c r="W24" s="202"/>
+      <c r="X24" s="202"/>
+      <c r="Y24" s="200">
         <v>100</v>
       </c>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="196"/>
-      <c r="AC24" s="196"/>
+      <c r="Z24" s="202"/>
+      <c r="AA24" s="202"/>
+      <c r="AB24" s="202"/>
+      <c r="AC24" s="202"/>
       <c r="AD24" s="67"/>
       <c r="AE24" s="67"/>
       <c r="AF24" s="67"/>
@@ -9521,22 +9466,22 @@
       </c>
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="202"/>
-      <c r="P25" s="202"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="199"/>
-      <c r="W25" s="175"/>
-      <c r="X25" s="175"/>
-      <c r="Y25" s="199"/>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="175"/>
-      <c r="AB25" s="175"/>
-      <c r="AC25" s="175"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="198"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+      <c r="S25" s="201"/>
+      <c r="T25" s="201"/>
+      <c r="U25" s="201"/>
+      <c r="V25" s="201"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="201"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
       <c r="AD25" s="67"/>
       <c r="AE25" s="67"/>
       <c r="AF25" s="67"/>
@@ -9550,6 +9495,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="O11:O18"/>
+    <mergeCell ref="P11:P18"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N11:N18"/>
+    <mergeCell ref="Q11:Q18"/>
+    <mergeCell ref="R11:R18"/>
+    <mergeCell ref="T11:T18"/>
+    <mergeCell ref="V11:V18"/>
+    <mergeCell ref="W11:W18"/>
+    <mergeCell ref="X11:X18"/>
+    <mergeCell ref="Y11:Y18"/>
+    <mergeCell ref="Z11:Z18"/>
+    <mergeCell ref="P19:P25"/>
+    <mergeCell ref="S11:S18"/>
+    <mergeCell ref="U11:U18"/>
+    <mergeCell ref="S19:S25"/>
+    <mergeCell ref="U19:U25"/>
     <mergeCell ref="N19:N25"/>
     <mergeCell ref="Q19:Q25"/>
     <mergeCell ref="R19:R25"/>
@@ -9566,25 +9530,6 @@
     <mergeCell ref="T19:T25"/>
     <mergeCell ref="V19:V25"/>
     <mergeCell ref="O19:O25"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="S11:S18"/>
-    <mergeCell ref="U11:U18"/>
-    <mergeCell ref="S19:S25"/>
-    <mergeCell ref="U19:U25"/>
-    <mergeCell ref="O11:O18"/>
-    <mergeCell ref="P11:P18"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="N11:N18"/>
-    <mergeCell ref="Q11:Q18"/>
-    <mergeCell ref="R11:R18"/>
-    <mergeCell ref="T11:T18"/>
-    <mergeCell ref="V11:V18"/>
-    <mergeCell ref="W11:W18"/>
-    <mergeCell ref="X11:X18"/>
-    <mergeCell ref="Y11:Y18"/>
-    <mergeCell ref="Z11:Z18"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -9649,39 +9594,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -10095,38 +10040,38 @@
       </c>
       <c r="L10" s="83"/>
       <c r="M10" s="83"/>
-      <c r="N10" s="200" t="s">
+      <c r="N10" s="196" t="s">
         <v>202</v>
       </c>
-      <c r="O10" s="200"/>
-      <c r="P10" s="200"/>
-      <c r="Q10" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T10" s="197" t="s">
+      <c r="O10" s="196"/>
+      <c r="P10" s="196"/>
+      <c r="Q10" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T10" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="U10" s="197" t="s">
+      <c r="U10" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="V10" s="197" t="s">
+      <c r="V10" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W10" s="174"/>
-      <c r="X10" s="174"/>
-      <c r="Y10" s="197">
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="199">
         <v>30</v>
       </c>
-      <c r="Z10" s="174"/>
-      <c r="AA10" s="174"/>
-      <c r="AB10" s="174"/>
-      <c r="AC10" s="174"/>
+      <c r="Z10" s="176"/>
+      <c r="AA10" s="176"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
       <c r="AD10" s="67"/>
       <c r="AE10" s="67"/>
       <c r="AF10" s="67"/>
@@ -10164,30 +10109,30 @@
       </c>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="198"/>
-      <c r="U11" s="198"/>
-      <c r="V11" s="198"/>
-      <c r="W11" s="196"/>
-      <c r="X11" s="196"/>
-      <c r="Y11" s="198">
+      <c r="N11" s="197"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="197"/>
+      <c r="Q11" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="200"/>
+      <c r="U11" s="200"/>
+      <c r="V11" s="200"/>
+      <c r="W11" s="202"/>
+      <c r="X11" s="202"/>
+      <c r="Y11" s="200">
         <v>4</v>
       </c>
-      <c r="Z11" s="196"/>
-      <c r="AA11" s="196"/>
-      <c r="AB11" s="196"/>
-      <c r="AC11" s="196"/>
+      <c r="Z11" s="202"/>
+      <c r="AA11" s="202"/>
+      <c r="AB11" s="202"/>
+      <c r="AC11" s="202"/>
       <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
       <c r="AF11" s="67"/>
@@ -10225,30 +10170,30 @@
       </c>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="196"/>
-      <c r="Y12" s="198">
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="200"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="200">
         <v>4</v>
       </c>
-      <c r="Z12" s="196"/>
-      <c r="AA12" s="196"/>
-      <c r="AB12" s="196"/>
-      <c r="AC12" s="196"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="202"/>
+      <c r="AB12" s="202"/>
+      <c r="AC12" s="202"/>
       <c r="AD12" s="67"/>
       <c r="AE12" s="67"/>
       <c r="AF12" s="67"/>
@@ -10286,30 +10231,30 @@
       </c>
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="198">
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="200">
         <v>8</v>
       </c>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
       <c r="AF13" s="67"/>
@@ -10347,30 +10292,30 @@
       </c>
       <c r="L14" s="83"/>
       <c r="M14" s="83"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="198">
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="200">
         <v>1</v>
       </c>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
-      <c r="AC14" s="196"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
       <c r="AD14" s="67"/>
       <c r="AE14" s="67"/>
       <c r="AF14" s="67"/>
@@ -10408,30 +10353,30 @@
       </c>
       <c r="L15" s="83"/>
       <c r="M15" s="83"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="196"/>
-      <c r="X15" s="196"/>
-      <c r="Y15" s="198">
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" s="200"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="202"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="200">
         <v>1</v>
       </c>
-      <c r="Z15" s="196"/>
-      <c r="AA15" s="196"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="196"/>
+      <c r="Z15" s="202"/>
+      <c r="AA15" s="202"/>
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="202"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
       <c r="AF15" s="67"/>
@@ -10469,22 +10414,22 @@
       </c>
       <c r="L16" s="83"/>
       <c r="M16" s="83"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="198"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="198"/>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="198"/>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="196"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="200"/>
+      <c r="R16" s="200"/>
+      <c r="S16" s="200"/>
+      <c r="T16" s="200"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="202"/>
+      <c r="X16" s="202"/>
+      <c r="Y16" s="200"/>
+      <c r="Z16" s="202"/>
+      <c r="AA16" s="202"/>
+      <c r="AB16" s="202"/>
+      <c r="AC16" s="202"/>
     </row>
     <row r="17" spans="2:36">
       <c r="B17" s="83" t="s">
@@ -10515,30 +10460,30 @@
       </c>
       <c r="L17" s="83"/>
       <c r="M17" s="83"/>
-      <c r="N17" s="202"/>
-      <c r="O17" s="202"/>
-      <c r="P17" s="202"/>
-      <c r="Q17" s="199" t="s">
-        <v>90</v>
-      </c>
-      <c r="R17" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="S17" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="T17" s="199"/>
-      <c r="U17" s="199"/>
-      <c r="V17" s="199"/>
-      <c r="W17" s="175"/>
-      <c r="X17" s="175"/>
-      <c r="Y17" s="199">
+      <c r="N17" s="198"/>
+      <c r="O17" s="198"/>
+      <c r="P17" s="198"/>
+      <c r="Q17" s="201" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="S17" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="T17" s="201"/>
+      <c r="U17" s="201"/>
+      <c r="V17" s="201"/>
+      <c r="W17" s="177"/>
+      <c r="X17" s="177"/>
+      <c r="Y17" s="201">
         <v>6</v>
       </c>
-      <c r="Z17" s="175"/>
-      <c r="AA17" s="175"/>
-      <c r="AB17" s="175"/>
-      <c r="AC17" s="175"/>
+      <c r="Z17" s="177"/>
+      <c r="AA17" s="177"/>
+      <c r="AB17" s="177"/>
+      <c r="AC17" s="177"/>
       <c r="AD17" s="67"/>
       <c r="AE17" s="67"/>
       <c r="AF17" s="67"/>
@@ -10576,38 +10521,38 @@
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83"/>
-      <c r="N18" s="200" t="s">
+      <c r="N18" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="O18" s="200"/>
-      <c r="P18" s="200"/>
-      <c r="Q18" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S18" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T18" s="197" t="s">
+      <c r="O18" s="196"/>
+      <c r="P18" s="196"/>
+      <c r="Q18" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S18" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T18" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="U18" s="197" t="s">
+      <c r="U18" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="V18" s="197" t="s">
+      <c r="V18" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="197">
+      <c r="W18" s="176"/>
+      <c r="X18" s="176"/>
+      <c r="Y18" s="199">
         <v>15</v>
       </c>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="174"/>
-      <c r="AB18" s="174"/>
-      <c r="AC18" s="174"/>
+      <c r="Z18" s="176"/>
+      <c r="AA18" s="176"/>
+      <c r="AB18" s="176"/>
+      <c r="AC18" s="176"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
       <c r="AF18" s="67"/>
@@ -10645,30 +10590,30 @@
       </c>
       <c r="L19" s="62"/>
       <c r="M19" s="83"/>
-      <c r="N19" s="201"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="198"/>
-      <c r="S19" s="198"/>
-      <c r="T19" s="198" t="s">
+      <c r="N19" s="197"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="197"/>
+      <c r="Q19" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="200"/>
+      <c r="S19" s="200"/>
+      <c r="T19" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="U19" s="198" t="s">
+      <c r="U19" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="V19" s="198"/>
-      <c r="W19" s="196"/>
-      <c r="X19" s="196"/>
-      <c r="Y19" s="198">
+      <c r="V19" s="200"/>
+      <c r="W19" s="202"/>
+      <c r="X19" s="202"/>
+      <c r="Y19" s="200">
         <v>4</v>
       </c>
-      <c r="Z19" s="196"/>
-      <c r="AA19" s="196"/>
-      <c r="AB19" s="196"/>
-      <c r="AC19" s="196"/>
+      <c r="Z19" s="202"/>
+      <c r="AA19" s="202"/>
+      <c r="AB19" s="202"/>
+      <c r="AC19" s="202"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
@@ -10706,30 +10651,30 @@
       </c>
       <c r="L20" s="83"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="198"/>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198" t="s">
+      <c r="N20" s="197"/>
+      <c r="O20" s="197"/>
+      <c r="P20" s="197"/>
+      <c r="Q20" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="U20" s="198" t="s">
+      <c r="U20" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="V20" s="198"/>
-      <c r="W20" s="196"/>
-      <c r="X20" s="196"/>
-      <c r="Y20" s="198">
+      <c r="V20" s="200"/>
+      <c r="W20" s="202"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="200">
         <v>4</v>
       </c>
-      <c r="Z20" s="196"/>
-      <c r="AA20" s="196"/>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="196"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
       <c r="AD20" s="67"/>
       <c r="AE20" s="67"/>
       <c r="AF20" s="67"/>
@@ -10767,30 +10712,30 @@
       </c>
       <c r="L21" s="83"/>
       <c r="M21" s="83"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198" t="s">
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+      <c r="Q21" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="U21" s="198" t="s">
+      <c r="U21" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="V21" s="198"/>
-      <c r="W21" s="196"/>
-      <c r="X21" s="196"/>
-      <c r="Y21" s="198">
+      <c r="V21" s="200"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="200">
         <v>8</v>
       </c>
-      <c r="Z21" s="196"/>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="196"/>
-      <c r="AC21" s="196"/>
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
       <c r="AD21" s="67"/>
       <c r="AE21" s="67"/>
       <c r="AF21" s="67"/>
@@ -10828,30 +10773,30 @@
       </c>
       <c r="L22" s="62"/>
       <c r="M22" s="83"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="201"/>
-      <c r="Q22" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198" t="s">
+      <c r="N22" s="197"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="197"/>
+      <c r="Q22" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="U22" s="198" t="s">
+      <c r="U22" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="V22" s="198"/>
-      <c r="W22" s="196"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="198">
+      <c r="V22" s="200"/>
+      <c r="W22" s="202"/>
+      <c r="X22" s="202"/>
+      <c r="Y22" s="200">
         <v>1</v>
       </c>
-      <c r="Z22" s="196"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="196"/>
-      <c r="AC22" s="196"/>
+      <c r="Z22" s="202"/>
+      <c r="AA22" s="202"/>
+      <c r="AB22" s="202"/>
+      <c r="AC22" s="202"/>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
       <c r="AF22" s="67"/>
@@ -10889,30 +10834,30 @@
       </c>
       <c r="L23" s="64"/>
       <c r="M23" s="64"/>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="201"/>
-      <c r="Q23" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" s="198"/>
-      <c r="S23" s="198"/>
-      <c r="T23" s="198" t="s">
+      <c r="N23" s="197"/>
+      <c r="O23" s="197"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="U23" s="198" t="s">
+      <c r="U23" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="V23" s="198"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="198">
+      <c r="V23" s="200"/>
+      <c r="W23" s="202"/>
+      <c r="X23" s="202"/>
+      <c r="Y23" s="200">
         <v>100</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
+      <c r="Z23" s="202"/>
+      <c r="AA23" s="202"/>
+      <c r="AB23" s="202"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="67"/>
       <c r="AE23" s="67"/>
       <c r="AF23" s="67"/>
@@ -10950,22 +10895,22 @@
       </c>
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="202"/>
-      <c r="P24" s="202"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="199"/>
-      <c r="W24" s="175"/>
-      <c r="X24" s="175"/>
-      <c r="Y24" s="199"/>
-      <c r="Z24" s="175"/>
-      <c r="AA24" s="175"/>
-      <c r="AB24" s="175"/>
-      <c r="AC24" s="175"/>
+      <c r="N24" s="198"/>
+      <c r="O24" s="198"/>
+      <c r="P24" s="198"/>
+      <c r="Q24" s="201"/>
+      <c r="R24" s="201"/>
+      <c r="S24" s="201"/>
+      <c r="T24" s="201"/>
+      <c r="U24" s="201"/>
+      <c r="V24" s="201"/>
+      <c r="W24" s="177"/>
+      <c r="X24" s="177"/>
+      <c r="Y24" s="201"/>
+      <c r="Z24" s="177"/>
+      <c r="AA24" s="177"/>
+      <c r="AB24" s="177"/>
+      <c r="AC24" s="177"/>
       <c r="AD24" s="67"/>
       <c r="AE24" s="67"/>
       <c r="AF24" s="67"/>
@@ -10979,25 +10924,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AC10:AC17"/>
-    <mergeCell ref="AC18:AC24"/>
-    <mergeCell ref="W18:W24"/>
-    <mergeCell ref="X18:X24"/>
-    <mergeCell ref="Y18:Y24"/>
-    <mergeCell ref="Z18:Z24"/>
-    <mergeCell ref="AA18:AA24"/>
-    <mergeCell ref="AB18:AB24"/>
-    <mergeCell ref="AB10:AB17"/>
-    <mergeCell ref="O10:O17"/>
-    <mergeCell ref="P10:P17"/>
-    <mergeCell ref="N18:N24"/>
-    <mergeCell ref="Q18:Q24"/>
-    <mergeCell ref="R18:R24"/>
-    <mergeCell ref="T18:T24"/>
-    <mergeCell ref="V18:V24"/>
-    <mergeCell ref="O18:O24"/>
-    <mergeCell ref="P18:P24"/>
-    <mergeCell ref="S18:S24"/>
     <mergeCell ref="S10:S17"/>
     <mergeCell ref="U10:U17"/>
     <mergeCell ref="U18:U24"/>
@@ -11014,6 +10940,25 @@
     <mergeCell ref="Y10:Y17"/>
     <mergeCell ref="Z10:Z17"/>
     <mergeCell ref="AA10:AA17"/>
+    <mergeCell ref="T18:T24"/>
+    <mergeCell ref="V18:V24"/>
+    <mergeCell ref="O18:O24"/>
+    <mergeCell ref="P18:P24"/>
+    <mergeCell ref="S18:S24"/>
+    <mergeCell ref="O10:O17"/>
+    <mergeCell ref="P10:P17"/>
+    <mergeCell ref="N18:N24"/>
+    <mergeCell ref="Q18:Q24"/>
+    <mergeCell ref="R18:R24"/>
+    <mergeCell ref="AC10:AC17"/>
+    <mergeCell ref="AC18:AC24"/>
+    <mergeCell ref="W18:W24"/>
+    <mergeCell ref="X18:X24"/>
+    <mergeCell ref="Y18:Y24"/>
+    <mergeCell ref="Z18:Z24"/>
+    <mergeCell ref="AA18:AA24"/>
+    <mergeCell ref="AB18:AB24"/>
+    <mergeCell ref="AB10:AB17"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -11329,17 +11274,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
@@ -11348,54 +11293,54 @@
       <c r="C7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="76" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="156"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="76" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="76" t="s">
         <v>146</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="161"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="5"/>
@@ -11409,17 +11354,17 @@
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="154" t="s">
+      <c r="B12" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
     </row>
     <row r="13" spans="2:10" ht="23.25" customHeight="1">
       <c r="B13" s="44" t="s">
@@ -11431,16 +11376,16 @@
       <c r="D13" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="162" t="s">
+      <c r="E13" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="162" t="s">
+      <c r="F13" s="163"/>
+      <c r="G13" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="164"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="1" t="s">
@@ -11450,14 +11395,14 @@
       <c r="D14" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E14" s="158" t="s">
+      <c r="E14" s="157" t="s">
         <v>211</v>
       </c>
-      <c r="F14" s="159"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
     </row>
     <row r="15" spans="2:10" ht="13.5" thickBot="1">
       <c r="B15" s="2"/>
@@ -11471,11 +11416,11 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B16" s="154" t="s">
+      <c r="B16" s="152" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="155"/>
-      <c r="D16" s="155"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="43" t="s">
@@ -11521,17 +11466,17 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="153"/>
-      <c r="D22" s="153"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="48" t="s">
@@ -11543,52 +11488,59 @@
       <c r="D23" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="157" t="s">
+      <c r="E23" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="157"/>
-      <c r="G23" s="157" t="s">
+      <c r="F23" s="156"/>
+      <c r="G23" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="157"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="10"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="10"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="10"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:J24"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="D8:J8"/>
@@ -11602,13 +11554,6 @@
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="D9:J9"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:J24"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -11694,39 +11639,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -12193,40 +12138,40 @@
       </c>
       <c r="L9" s="83"/>
       <c r="M9" s="83"/>
-      <c r="N9" s="166" t="s">
+      <c r="N9" s="168" t="s">
         <v>176</v>
       </c>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="182" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="168" t="s">
-        <v>184</v>
-      </c>
-      <c r="S9" s="168" t="s">
-        <v>184</v>
-      </c>
-      <c r="T9" s="170" t="s">
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="178" t="s">
+        <v>184</v>
+      </c>
+      <c r="S9" s="178" t="s">
+        <v>184</v>
+      </c>
+      <c r="T9" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="U9" s="170" t="s">
+      <c r="U9" s="172" t="s">
         <v>134</v>
       </c>
-      <c r="V9" s="174" t="s">
+      <c r="V9" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="W9" s="174"/>
-      <c r="X9" s="170" t="s">
+      <c r="W9" s="176"/>
+      <c r="X9" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="Y9" s="184">
+      <c r="Y9" s="174">
         <v>4</v>
       </c>
-      <c r="Z9" s="172"/>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="172"/>
-      <c r="AC9" s="172"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="166"/>
+      <c r="AB9" s="166"/>
+      <c r="AC9" s="166"/>
       <c r="AD9" s="67"/>
       <c r="AE9" s="67"/>
       <c r="AF9" s="67"/>
@@ -12266,22 +12211,22 @@
       </c>
       <c r="L10" s="83"/>
       <c r="M10" s="83"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="167"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="183"/>
-      <c r="R10" s="169"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="171"/>
-      <c r="V10" s="175"/>
-      <c r="W10" s="175"/>
-      <c r="X10" s="171"/>
-      <c r="Y10" s="185"/>
-      <c r="Z10" s="173"/>
-      <c r="AA10" s="173"/>
-      <c r="AB10" s="173"/>
-      <c r="AC10" s="173"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="171"/>
+      <c r="R10" s="179"/>
+      <c r="S10" s="179"/>
+      <c r="T10" s="173"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="177"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="173"/>
+      <c r="Y10" s="175"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="167"/>
       <c r="AD10" s="67"/>
       <c r="AE10" s="67"/>
       <c r="AF10" s="67"/>
@@ -12321,38 +12266,38 @@
       </c>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
-      <c r="N11" s="166" t="s">
+      <c r="N11" s="168" t="s">
         <v>175</v>
       </c>
-      <c r="O11" s="166"/>
-      <c r="P11" s="166"/>
-      <c r="Q11" s="182" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="168" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="168" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="170" t="s">
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="178" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="178" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="U11" s="170" t="s">
+      <c r="U11" s="172" t="s">
         <v>132</v>
       </c>
-      <c r="V11" s="174"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="170" t="s">
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="Y11" s="184">
+      <c r="Y11" s="174">
         <v>8</v>
       </c>
-      <c r="Z11" s="172"/>
-      <c r="AA11" s="172"/>
-      <c r="AB11" s="172"/>
-      <c r="AC11" s="172"/>
+      <c r="Z11" s="166"/>
+      <c r="AA11" s="166"/>
+      <c r="AB11" s="166"/>
+      <c r="AC11" s="166"/>
       <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
       <c r="AF11" s="67"/>
@@ -12392,22 +12337,22 @@
       </c>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="183"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="169"/>
-      <c r="T12" s="171"/>
-      <c r="U12" s="171"/>
-      <c r="V12" s="175"/>
-      <c r="W12" s="175"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="173"/>
-      <c r="AA12" s="173"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="173"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="171"/>
+      <c r="R12" s="179"/>
+      <c r="S12" s="179"/>
+      <c r="T12" s="173"/>
+      <c r="U12" s="173"/>
+      <c r="V12" s="177"/>
+      <c r="W12" s="177"/>
+      <c r="X12" s="173"/>
+      <c r="Y12" s="175"/>
+      <c r="Z12" s="167"/>
+      <c r="AA12" s="167"/>
+      <c r="AB12" s="167"/>
+      <c r="AC12" s="167"/>
       <c r="AD12" s="67"/>
       <c r="AE12" s="67"/>
       <c r="AF12" s="67"/>
@@ -14406,6 +14351,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="T9:T10"/>
+    <mergeCell ref="AC11:AC12"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="Z11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AB12"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="AB9:AB10"/>
     <mergeCell ref="AC9:AC10"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="Q11:Q12"/>
@@ -14422,25 +14386,6 @@
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="R11:R12"/>
     <mergeCell ref="V9:V10"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="AB9:AB10"/>
-    <mergeCell ref="AC11:AC12"/>
-    <mergeCell ref="W11:W12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="Z11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AB12"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="T9:T10"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -14506,39 +14451,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -17081,39 +17026,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -17501,18 +17446,18 @@
       </c>
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
-      <c r="N8" s="190" t="s">
+      <c r="N8" s="186" t="s">
         <v>176</v>
       </c>
       <c r="O8" s="72"/>
       <c r="P8" s="102"/>
-      <c r="Q8" s="190" t="s">
-        <v>90</v>
-      </c>
-      <c r="R8" s="190" t="s">
-        <v>184</v>
-      </c>
-      <c r="S8" s="190" t="s">
+      <c r="Q8" s="186" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" s="186" t="s">
+        <v>184</v>
+      </c>
+      <c r="S8" s="186" t="s">
         <v>184</v>
       </c>
       <c r="T8" s="188" t="s">
@@ -17521,18 +17466,18 @@
       <c r="U8" s="100" t="s">
         <v>134</v>
       </c>
-      <c r="V8" s="190" t="s">
+      <c r="V8" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="W8" s="192"/>
-      <c r="X8" s="194"/>
-      <c r="Y8" s="186">
+      <c r="W8" s="190"/>
+      <c r="X8" s="192"/>
+      <c r="Y8" s="194">
         <v>4</v>
       </c>
-      <c r="Z8" s="186"/>
-      <c r="AA8" s="186"/>
-      <c r="AB8" s="186"/>
-      <c r="AC8" s="186"/>
+      <c r="Z8" s="194"/>
+      <c r="AA8" s="194"/>
+      <c r="AB8" s="194"/>
+      <c r="AC8" s="194"/>
       <c r="AD8" s="67"/>
       <c r="AE8" s="67"/>
       <c r="AF8" s="67"/>
@@ -17572,28 +17517,28 @@
       </c>
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
-      <c r="N9" s="191"/>
+      <c r="N9" s="187"/>
       <c r="O9" s="72"/>
       <c r="P9" s="102"/>
-      <c r="Q9" s="191" t="s">
-        <v>90</v>
-      </c>
-      <c r="R9" s="191" t="s">
+      <c r="Q9" s="187" t="s">
+        <v>90</v>
+      </c>
+      <c r="R9" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="S9" s="191" t="s">
+      <c r="S9" s="187" t="s">
         <v>183</v>
       </c>
       <c r="T9" s="189"/>
       <c r="U9" s="101"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="193"/>
-      <c r="X9" s="195"/>
-      <c r="Y9" s="187"/>
-      <c r="Z9" s="187"/>
-      <c r="AA9" s="187"/>
-      <c r="AB9" s="187"/>
-      <c r="AC9" s="187"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="191"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="195"/>
+      <c r="Z9" s="195"/>
+      <c r="AA9" s="195"/>
+      <c r="AB9" s="195"/>
+      <c r="AC9" s="195"/>
       <c r="AD9" s="67"/>
       <c r="AE9" s="67"/>
       <c r="AF9" s="67"/>
@@ -17633,18 +17578,18 @@
       </c>
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
-      <c r="N10" s="190" t="s">
+      <c r="N10" s="186" t="s">
         <v>175</v>
       </c>
       <c r="O10" s="72"/>
       <c r="P10" s="102"/>
-      <c r="Q10" s="190" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="190" t="s">
-        <v>184</v>
-      </c>
-      <c r="S10" s="190" t="s">
+      <c r="Q10" s="186" t="s">
+        <v>90</v>
+      </c>
+      <c r="R10" s="186" t="s">
+        <v>184</v>
+      </c>
+      <c r="S10" s="186" t="s">
         <v>184</v>
       </c>
       <c r="T10" s="188" t="s">
@@ -17653,18 +17598,18 @@
       <c r="U10" s="100" t="s">
         <v>170</v>
       </c>
-      <c r="V10" s="190" t="s">
+      <c r="V10" s="186" t="s">
         <v>96</v>
       </c>
-      <c r="W10" s="192"/>
-      <c r="X10" s="194"/>
-      <c r="Y10" s="186">
+      <c r="W10" s="190"/>
+      <c r="X10" s="192"/>
+      <c r="Y10" s="194">
         <v>8</v>
       </c>
-      <c r="Z10" s="186"/>
-      <c r="AA10" s="186"/>
-      <c r="AB10" s="186"/>
-      <c r="AC10" s="186"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="194"/>
       <c r="AD10" s="67"/>
       <c r="AE10" s="67"/>
       <c r="AF10" s="67"/>
@@ -17704,28 +17649,28 @@
       </c>
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
-      <c r="N11" s="191"/>
+      <c r="N11" s="187"/>
       <c r="O11" s="72"/>
       <c r="P11" s="102"/>
-      <c r="Q11" s="191" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="191" t="s">
+      <c r="Q11" s="187" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="187" t="s">
         <v>183</v>
       </c>
-      <c r="S11" s="191" t="s">
+      <c r="S11" s="187" t="s">
         <v>183</v>
       </c>
       <c r="T11" s="189"/>
       <c r="U11" s="101"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="195"/>
-      <c r="Y11" s="187"/>
-      <c r="Z11" s="187"/>
-      <c r="AA11" s="187"/>
-      <c r="AB11" s="187"/>
-      <c r="AC11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="191"/>
+      <c r="X11" s="193"/>
+      <c r="Y11" s="195"/>
+      <c r="Z11" s="195"/>
+      <c r="AA11" s="195"/>
+      <c r="AB11" s="195"/>
+      <c r="AC11" s="195"/>
       <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
       <c r="AF11" s="67"/>
@@ -19786,13 +19731,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AC10:AC11"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AA10:AA11"/>
     <mergeCell ref="T10:T11"/>
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="B2:M2"/>
@@ -19809,12 +19753,13 @@
     <mergeCell ref="AB8:AB9"/>
     <mergeCell ref="AB10:AB11"/>
     <mergeCell ref="N8:N9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AC10:AC11"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="Z10:Z11"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AA10:AA11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -19827,7 +19772,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -19835,7 +19782,10 @@
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId1"/>
+  <oleObjects>
+    <oleObject progId="Visio.Drawing.11" shapeId="31745" r:id="rId2"/>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -19895,39 +19845,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -20353,34 +20303,34 @@
       </c>
       <c r="L11" s="83"/>
       <c r="M11" s="83"/>
-      <c r="N11" s="200" t="s">
+      <c r="N11" s="196" t="s">
         <v>202</v>
       </c>
       <c r="O11" s="64"/>
       <c r="P11" s="64"/>
-      <c r="Q11" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="197" t="s">
+      <c r="Q11" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="199" t="s">
         <v>184</v>
       </c>
       <c r="S11" s="64"/>
-      <c r="T11" s="197" t="s">
+      <c r="T11" s="199" t="s">
         <v>201</v>
       </c>
       <c r="U11" s="117"/>
-      <c r="V11" s="197" t="s">
+      <c r="V11" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="197">
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="199">
         <v>30</v>
       </c>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
       <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
       <c r="AF11" s="67"/>
@@ -20414,28 +20364,28 @@
       </c>
       <c r="L12" s="83"/>
       <c r="M12" s="83"/>
-      <c r="N12" s="201"/>
+      <c r="N12" s="197"/>
       <c r="O12" s="65"/>
       <c r="P12" s="65"/>
-      <c r="Q12" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="198" t="s">
+      <c r="Q12" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="200" t="s">
         <v>184</v>
       </c>
       <c r="S12" s="72"/>
-      <c r="T12" s="198"/>
+      <c r="T12" s="200"/>
       <c r="U12" s="117"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="196"/>
-      <c r="Y12" s="198">
+      <c r="V12" s="200"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="200">
         <v>4</v>
       </c>
-      <c r="Z12" s="196"/>
-      <c r="AA12" s="196"/>
-      <c r="AB12" s="196"/>
-      <c r="AC12" s="196"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="202"/>
+      <c r="AB12" s="202"/>
+      <c r="AC12" s="202"/>
       <c r="AD12" s="67"/>
       <c r="AE12" s="67"/>
       <c r="AF12" s="67"/>
@@ -20469,28 +20419,28 @@
       </c>
       <c r="L13" s="83"/>
       <c r="M13" s="83"/>
-      <c r="N13" s="201"/>
+      <c r="N13" s="197"/>
       <c r="O13" s="64"/>
       <c r="P13" s="64"/>
-      <c r="Q13" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="198" t="s">
+      <c r="Q13" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="200" t="s">
         <v>184</v>
       </c>
       <c r="S13" s="64"/>
-      <c r="T13" s="198"/>
+      <c r="T13" s="200"/>
       <c r="U13" s="117"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="198">
+      <c r="V13" s="200"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="200">
         <v>4</v>
       </c>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
       <c r="AF13" s="67"/>
@@ -20524,28 +20474,28 @@
       </c>
       <c r="L14" s="83"/>
       <c r="M14" s="83"/>
-      <c r="N14" s="201"/>
+      <c r="N14" s="197"/>
       <c r="O14" s="65"/>
       <c r="P14" s="65"/>
-      <c r="Q14" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" s="198" t="s">
+      <c r="Q14" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="200" t="s">
         <v>184</v>
       </c>
       <c r="S14" s="72"/>
-      <c r="T14" s="198"/>
+      <c r="T14" s="200"/>
       <c r="U14" s="117"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="198">
+      <c r="V14" s="200"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="200">
         <v>8</v>
       </c>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
-      <c r="AC14" s="196"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
       <c r="AD14" s="67"/>
       <c r="AE14" s="67"/>
       <c r="AF14" s="67"/>
@@ -20579,28 +20529,28 @@
       </c>
       <c r="L15" s="83"/>
       <c r="M15" s="83"/>
-      <c r="N15" s="201"/>
+      <c r="N15" s="197"/>
       <c r="O15" s="65"/>
       <c r="P15" s="65"/>
-      <c r="Q15" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="198" t="s">
+      <c r="Q15" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="200" t="s">
         <v>184</v>
       </c>
       <c r="S15" s="72"/>
-      <c r="T15" s="198"/>
+      <c r="T15" s="200"/>
       <c r="U15" s="117"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="196"/>
-      <c r="X15" s="196"/>
-      <c r="Y15" s="198">
+      <c r="V15" s="200"/>
+      <c r="W15" s="202"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="200">
         <v>1</v>
       </c>
-      <c r="Z15" s="196"/>
-      <c r="AA15" s="196"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="196"/>
+      <c r="Z15" s="202"/>
+      <c r="AA15" s="202"/>
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="202"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
       <c r="AF15" s="67"/>
@@ -20634,28 +20584,28 @@
       </c>
       <c r="L16" s="83"/>
       <c r="M16" s="83"/>
-      <c r="N16" s="201"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="64"/>
       <c r="P16" s="64"/>
-      <c r="Q16" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R16" s="198" t="s">
+      <c r="Q16" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="200" t="s">
         <v>184</v>
       </c>
       <c r="S16" s="64"/>
-      <c r="T16" s="198"/>
+      <c r="T16" s="200"/>
       <c r="U16" s="117"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="198">
+      <c r="V16" s="200"/>
+      <c r="W16" s="202"/>
+      <c r="X16" s="202"/>
+      <c r="Y16" s="200">
         <v>1</v>
       </c>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="196"/>
+      <c r="Z16" s="202"/>
+      <c r="AA16" s="202"/>
+      <c r="AB16" s="202"/>
+      <c r="AC16" s="202"/>
       <c r="AD16" s="67"/>
       <c r="AE16" s="67"/>
       <c r="AF16" s="67"/>
@@ -20689,22 +20639,22 @@
       </c>
       <c r="L17" s="83"/>
       <c r="M17" s="83"/>
-      <c r="N17" s="201"/>
+      <c r="N17" s="197"/>
       <c r="O17" s="92"/>
       <c r="P17" s="92"/>
-      <c r="Q17" s="198"/>
-      <c r="R17" s="198"/>
+      <c r="Q17" s="200"/>
+      <c r="R17" s="200"/>
       <c r="S17" s="118"/>
-      <c r="T17" s="198"/>
+      <c r="T17" s="200"/>
       <c r="U17" s="119"/>
-      <c r="V17" s="198"/>
-      <c r="W17" s="196"/>
-      <c r="X17" s="196"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="196"/>
-      <c r="AA17" s="196"/>
-      <c r="AB17" s="196"/>
-      <c r="AC17" s="196"/>
+      <c r="V17" s="200"/>
+      <c r="W17" s="202"/>
+      <c r="X17" s="202"/>
+      <c r="Y17" s="200"/>
+      <c r="Z17" s="202"/>
+      <c r="AA17" s="202"/>
+      <c r="AB17" s="202"/>
+      <c r="AC17" s="202"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="83" t="s">
@@ -20731,28 +20681,28 @@
       </c>
       <c r="L18" s="83"/>
       <c r="M18" s="83"/>
-      <c r="N18" s="202"/>
+      <c r="N18" s="198"/>
       <c r="O18" s="64"/>
       <c r="P18" s="64"/>
-      <c r="Q18" s="199" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="199" t="s">
+      <c r="Q18" s="201" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="201" t="s">
         <v>184</v>
       </c>
       <c r="S18" s="64"/>
-      <c r="T18" s="199"/>
+      <c r="T18" s="201"/>
       <c r="U18" s="117"/>
-      <c r="V18" s="199"/>
-      <c r="W18" s="175"/>
-      <c r="X18" s="175"/>
-      <c r="Y18" s="199">
+      <c r="V18" s="201"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="201">
         <v>6</v>
       </c>
-      <c r="Z18" s="175"/>
-      <c r="AA18" s="175"/>
-      <c r="AB18" s="175"/>
-      <c r="AC18" s="175"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
       <c r="AF18" s="67"/>
@@ -20786,34 +20736,34 @@
       </c>
       <c r="L19" s="83"/>
       <c r="M19" s="83"/>
-      <c r="N19" s="200" t="s">
+      <c r="N19" s="196" t="s">
         <v>203</v>
       </c>
       <c r="O19" s="64"/>
       <c r="P19" s="64"/>
-      <c r="Q19" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="197" t="s">
+      <c r="Q19" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="199" t="s">
         <v>184</v>
       </c>
       <c r="S19" s="64"/>
-      <c r="T19" s="197" t="s">
+      <c r="T19" s="199" t="s">
         <v>89</v>
       </c>
       <c r="U19" s="112"/>
-      <c r="V19" s="197" t="s">
+      <c r="V19" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="197">
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="199">
         <v>15</v>
       </c>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
+      <c r="Z19" s="176"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="176"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
@@ -20847,28 +20797,28 @@
       </c>
       <c r="L20" s="62"/>
       <c r="M20" s="83"/>
-      <c r="N20" s="201"/>
+      <c r="N20" s="197"/>
       <c r="O20" s="65"/>
       <c r="P20" s="65"/>
-      <c r="Q20" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="198"/>
+      <c r="Q20" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="200"/>
       <c r="S20" s="72"/>
-      <c r="T20" s="198" t="s">
+      <c r="T20" s="200" t="s">
         <v>74</v>
       </c>
       <c r="U20" s="112"/>
-      <c r="V20" s="198"/>
-      <c r="W20" s="196"/>
-      <c r="X20" s="196"/>
-      <c r="Y20" s="198">
+      <c r="V20" s="200"/>
+      <c r="W20" s="202"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="200">
         <v>4</v>
       </c>
-      <c r="Z20" s="196"/>
-      <c r="AA20" s="196"/>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="196"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
       <c r="AD20" s="67"/>
       <c r="AE20" s="67"/>
       <c r="AF20" s="67"/>
@@ -20902,28 +20852,28 @@
       </c>
       <c r="L21" s="83"/>
       <c r="M21" s="83"/>
-      <c r="N21" s="201"/>
+      <c r="N21" s="197"/>
       <c r="O21" s="64"/>
       <c r="P21" s="64"/>
-      <c r="Q21" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="198"/>
+      <c r="Q21" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="200"/>
       <c r="S21" s="64"/>
-      <c r="T21" s="198" t="s">
+      <c r="T21" s="200" t="s">
         <v>134</v>
       </c>
       <c r="U21" s="112"/>
-      <c r="V21" s="198"/>
-      <c r="W21" s="196"/>
-      <c r="X21" s="196"/>
-      <c r="Y21" s="198">
+      <c r="V21" s="200"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="200">
         <v>4</v>
       </c>
-      <c r="Z21" s="196"/>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="196"/>
-      <c r="AC21" s="196"/>
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
       <c r="AD21" s="67"/>
       <c r="AE21" s="67"/>
       <c r="AF21" s="67"/>
@@ -20957,28 +20907,28 @@
       </c>
       <c r="L22" s="83"/>
       <c r="M22" s="83"/>
-      <c r="N22" s="201"/>
+      <c r="N22" s="197"/>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
-      <c r="Q22" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="198"/>
+      <c r="Q22" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="200"/>
       <c r="S22" s="72"/>
-      <c r="T22" s="198" t="s">
+      <c r="T22" s="200" t="s">
         <v>132</v>
       </c>
       <c r="U22" s="112"/>
-      <c r="V22" s="198"/>
-      <c r="W22" s="196"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="198">
+      <c r="V22" s="200"/>
+      <c r="W22" s="202"/>
+      <c r="X22" s="202"/>
+      <c r="Y22" s="200">
         <v>8</v>
       </c>
-      <c r="Z22" s="196"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="196"/>
-      <c r="AC22" s="196"/>
+      <c r="Z22" s="202"/>
+      <c r="AA22" s="202"/>
+      <c r="AB22" s="202"/>
+      <c r="AC22" s="202"/>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
       <c r="AF22" s="67"/>
@@ -21012,28 +20962,28 @@
       </c>
       <c r="L23" s="62"/>
       <c r="M23" s="83"/>
-      <c r="N23" s="201"/>
+      <c r="N23" s="197"/>
       <c r="O23" s="65"/>
       <c r="P23" s="65"/>
-      <c r="Q23" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" s="198"/>
+      <c r="Q23" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="200"/>
       <c r="S23" s="72"/>
-      <c r="T23" s="198" t="s">
+      <c r="T23" s="200" t="s">
         <v>85</v>
       </c>
       <c r="U23" s="112"/>
-      <c r="V23" s="198"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="198">
+      <c r="V23" s="200"/>
+      <c r="W23" s="202"/>
+      <c r="X23" s="202"/>
+      <c r="Y23" s="200">
         <v>1</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
+      <c r="Z23" s="202"/>
+      <c r="AA23" s="202"/>
+      <c r="AB23" s="202"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="67"/>
       <c r="AE23" s="67"/>
       <c r="AF23" s="67"/>
@@ -21067,28 +21017,28 @@
       </c>
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
-      <c r="N24" s="201"/>
+      <c r="N24" s="197"/>
       <c r="O24" s="64"/>
       <c r="P24" s="64"/>
-      <c r="Q24" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R24" s="198"/>
+      <c r="Q24" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R24" s="200"/>
       <c r="S24" s="64"/>
-      <c r="T24" s="198" t="s">
+      <c r="T24" s="200" t="s">
         <v>81</v>
       </c>
       <c r="U24" s="112"/>
-      <c r="V24" s="198"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="198">
+      <c r="V24" s="200"/>
+      <c r="W24" s="202"/>
+      <c r="X24" s="202"/>
+      <c r="Y24" s="200">
         <v>100</v>
       </c>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="196"/>
-      <c r="AC24" s="196"/>
+      <c r="Z24" s="202"/>
+      <c r="AA24" s="202"/>
+      <c r="AB24" s="202"/>
+      <c r="AC24" s="202"/>
       <c r="AD24" s="67"/>
       <c r="AE24" s="67"/>
       <c r="AF24" s="67"/>
@@ -21122,22 +21072,22 @@
       </c>
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
-      <c r="N25" s="202"/>
+      <c r="N25" s="198"/>
       <c r="O25" s="64"/>
       <c r="P25" s="64"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
       <c r="S25" s="64"/>
-      <c r="T25" s="199"/>
+      <c r="T25" s="201"/>
       <c r="U25" s="112"/>
-      <c r="V25" s="199"/>
-      <c r="W25" s="175"/>
-      <c r="X25" s="175"/>
-      <c r="Y25" s="199"/>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="175"/>
-      <c r="AB25" s="175"/>
-      <c r="AC25" s="175"/>
+      <c r="V25" s="201"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="201"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
       <c r="AD25" s="67"/>
       <c r="AE25" s="67"/>
       <c r="AF25" s="67"/>
@@ -21151,13 +21101,14 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="T19:T25"/>
-    <mergeCell ref="V19:V25"/>
-    <mergeCell ref="W19:W25"/>
-    <mergeCell ref="X19:X25"/>
-    <mergeCell ref="R19:R25"/>
-    <mergeCell ref="Q19:Q25"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AA11:AA18"/>
+    <mergeCell ref="AB11:AB18"/>
+    <mergeCell ref="Q11:Q18"/>
+    <mergeCell ref="N11:N18"/>
+    <mergeCell ref="Z11:Z18"/>
     <mergeCell ref="Z19:Z25"/>
     <mergeCell ref="AA19:AA25"/>
     <mergeCell ref="AC11:AC18"/>
@@ -21170,14 +21121,13 @@
     <mergeCell ref="AB19:AB25"/>
     <mergeCell ref="AC19:AC25"/>
     <mergeCell ref="Y19:Y25"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AA11:AA18"/>
-    <mergeCell ref="AB11:AB18"/>
-    <mergeCell ref="Q11:Q18"/>
-    <mergeCell ref="N11:N18"/>
-    <mergeCell ref="Z11:Z18"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="T19:T25"/>
+    <mergeCell ref="V19:V25"/>
+    <mergeCell ref="W19:W25"/>
+    <mergeCell ref="X19:X25"/>
+    <mergeCell ref="R19:R25"/>
+    <mergeCell ref="Q19:Q25"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -21242,39 +21192,39 @@
       <c r="T1" s="52"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="176" t="s">
+      <c r="B2" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
-      <c r="K2" s="177"/>
-      <c r="L2" s="177"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="178" t="s">
+      <c r="C2" s="181"/>
+      <c r="D2" s="181"/>
+      <c r="E2" s="181"/>
+      <c r="F2" s="181"/>
+      <c r="G2" s="181"/>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="181"/>
+      <c r="M2" s="181"/>
+      <c r="N2" s="182" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="180" t="s">
+      <c r="O2" s="182"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="181"/>
-      <c r="S2" s="181"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="181"/>
-      <c r="AA2" s="181"/>
-      <c r="AB2" s="181"/>
+      <c r="R2" s="185"/>
+      <c r="S2" s="185"/>
+      <c r="T2" s="185"/>
+      <c r="U2" s="185"/>
+      <c r="V2" s="185"/>
+      <c r="W2" s="185"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="185"/>
+      <c r="Z2" s="185"/>
+      <c r="AA2" s="185"/>
+      <c r="AB2" s="185"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
@@ -21762,38 +21712,38 @@
       </c>
       <c r="L11" s="112"/>
       <c r="M11" s="112"/>
-      <c r="N11" s="200" t="s">
+      <c r="N11" s="196" t="s">
         <v>202</v>
       </c>
-      <c r="O11" s="200"/>
-      <c r="P11" s="200"/>
-      <c r="Q11" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S11" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T11" s="197" t="s">
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S11" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T11" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="U11" s="197" t="s">
+      <c r="U11" s="199" t="s">
         <v>201</v>
       </c>
-      <c r="V11" s="197" t="s">
+      <c r="V11" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W11" s="174"/>
-      <c r="X11" s="174"/>
-      <c r="Y11" s="197">
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="199">
         <v>30</v>
       </c>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="174"/>
-      <c r="AB11" s="174"/>
-      <c r="AC11" s="174"/>
+      <c r="Z11" s="176"/>
+      <c r="AA11" s="176"/>
+      <c r="AB11" s="176"/>
+      <c r="AC11" s="176"/>
       <c r="AD11" s="67"/>
       <c r="AE11" s="67"/>
       <c r="AF11" s="67"/>
@@ -21831,30 +21781,30 @@
       </c>
       <c r="L12" s="112"/>
       <c r="M12" s="112"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S12" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T12" s="198"/>
-      <c r="U12" s="198"/>
-      <c r="V12" s="198"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="196"/>
-      <c r="Y12" s="198">
+      <c r="N12" s="197"/>
+      <c r="O12" s="197"/>
+      <c r="P12" s="197"/>
+      <c r="Q12" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S12" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T12" s="200"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="200"/>
+      <c r="W12" s="202"/>
+      <c r="X12" s="202"/>
+      <c r="Y12" s="200">
         <v>4</v>
       </c>
-      <c r="Z12" s="196"/>
-      <c r="AA12" s="196"/>
-      <c r="AB12" s="196"/>
-      <c r="AC12" s="196"/>
+      <c r="Z12" s="202"/>
+      <c r="AA12" s="202"/>
+      <c r="AB12" s="202"/>
+      <c r="AC12" s="202"/>
       <c r="AD12" s="67"/>
       <c r="AE12" s="67"/>
       <c r="AF12" s="67"/>
@@ -21892,30 +21842,30 @@
       </c>
       <c r="L13" s="112"/>
       <c r="M13" s="112"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T13" s="198"/>
-      <c r="U13" s="198"/>
-      <c r="V13" s="198"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="198">
+      <c r="N13" s="197"/>
+      <c r="O13" s="197"/>
+      <c r="P13" s="197"/>
+      <c r="Q13" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S13" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T13" s="200"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="200"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="200">
         <v>4</v>
       </c>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
       <c r="AF13" s="67"/>
@@ -21953,30 +21903,30 @@
       </c>
       <c r="L14" s="112"/>
       <c r="M14" s="112"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S14" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T14" s="198"/>
-      <c r="U14" s="198"/>
-      <c r="V14" s="198"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="198">
+      <c r="N14" s="197"/>
+      <c r="O14" s="197"/>
+      <c r="P14" s="197"/>
+      <c r="Q14" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T14" s="200"/>
+      <c r="U14" s="200"/>
+      <c r="V14" s="200"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="200">
         <v>8</v>
       </c>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
-      <c r="AC14" s="196"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
       <c r="AD14" s="67"/>
       <c r="AE14" s="67"/>
       <c r="AF14" s="67"/>
@@ -22014,30 +21964,30 @@
       </c>
       <c r="L15" s="112"/>
       <c r="M15" s="112"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S15" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T15" s="198"/>
-      <c r="U15" s="198"/>
-      <c r="V15" s="198"/>
-      <c r="W15" s="196"/>
-      <c r="X15" s="196"/>
-      <c r="Y15" s="198">
+      <c r="N15" s="197"/>
+      <c r="O15" s="197"/>
+      <c r="P15" s="197"/>
+      <c r="Q15" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S15" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" s="200"/>
+      <c r="U15" s="200"/>
+      <c r="V15" s="200"/>
+      <c r="W15" s="202"/>
+      <c r="X15" s="202"/>
+      <c r="Y15" s="200">
         <v>1</v>
       </c>
-      <c r="Z15" s="196"/>
-      <c r="AA15" s="196"/>
-      <c r="AB15" s="196"/>
-      <c r="AC15" s="196"/>
+      <c r="Z15" s="202"/>
+      <c r="AA15" s="202"/>
+      <c r="AB15" s="202"/>
+      <c r="AC15" s="202"/>
       <c r="AD15" s="67"/>
       <c r="AE15" s="67"/>
       <c r="AF15" s="67"/>
@@ -22075,30 +22025,30 @@
       </c>
       <c r="L16" s="112"/>
       <c r="M16" s="112"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R16" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="S16" s="198" t="s">
-        <v>184</v>
-      </c>
-      <c r="T16" s="198"/>
-      <c r="U16" s="198"/>
-      <c r="V16" s="198"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="196"/>
-      <c r="Y16" s="198">
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="S16" s="200" t="s">
+        <v>184</v>
+      </c>
+      <c r="T16" s="200"/>
+      <c r="U16" s="200"/>
+      <c r="V16" s="200"/>
+      <c r="W16" s="202"/>
+      <c r="X16" s="202"/>
+      <c r="Y16" s="200">
         <v>1</v>
       </c>
-      <c r="Z16" s="196"/>
-      <c r="AA16" s="196"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="196"/>
+      <c r="Z16" s="202"/>
+      <c r="AA16" s="202"/>
+      <c r="AB16" s="202"/>
+      <c r="AC16" s="202"/>
       <c r="AD16" s="67"/>
       <c r="AE16" s="67"/>
       <c r="AF16" s="67"/>
@@ -22136,22 +22086,22 @@
       </c>
       <c r="L17" s="112"/>
       <c r="M17" s="112"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="198"/>
-      <c r="R17" s="198"/>
-      <c r="S17" s="198"/>
-      <c r="T17" s="198"/>
-      <c r="U17" s="198"/>
-      <c r="V17" s="198"/>
-      <c r="W17" s="196"/>
-      <c r="X17" s="196"/>
-      <c r="Y17" s="198"/>
-      <c r="Z17" s="196"/>
-      <c r="AA17" s="196"/>
-      <c r="AB17" s="196"/>
-      <c r="AC17" s="196"/>
+      <c r="N17" s="197"/>
+      <c r="O17" s="197"/>
+      <c r="P17" s="197"/>
+      <c r="Q17" s="200"/>
+      <c r="R17" s="200"/>
+      <c r="S17" s="200"/>
+      <c r="T17" s="200"/>
+      <c r="U17" s="200"/>
+      <c r="V17" s="200"/>
+      <c r="W17" s="202"/>
+      <c r="X17" s="202"/>
+      <c r="Y17" s="200"/>
+      <c r="Z17" s="202"/>
+      <c r="AA17" s="202"/>
+      <c r="AB17" s="202"/>
+      <c r="AC17" s="202"/>
     </row>
     <row r="18" spans="2:36">
       <c r="B18" s="112" t="s">
@@ -22182,30 +22132,30 @@
       </c>
       <c r="L18" s="112"/>
       <c r="M18" s="112"/>
-      <c r="N18" s="202"/>
-      <c r="O18" s="202"/>
-      <c r="P18" s="202"/>
-      <c r="Q18" s="199" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="S18" s="199" t="s">
-        <v>184</v>
-      </c>
-      <c r="T18" s="199"/>
-      <c r="U18" s="199"/>
-      <c r="V18" s="199"/>
-      <c r="W18" s="175"/>
-      <c r="X18" s="175"/>
-      <c r="Y18" s="199">
+      <c r="N18" s="198"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="198"/>
+      <c r="Q18" s="201" t="s">
+        <v>90</v>
+      </c>
+      <c r="R18" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="S18" s="201" t="s">
+        <v>184</v>
+      </c>
+      <c r="T18" s="201"/>
+      <c r="U18" s="201"/>
+      <c r="V18" s="201"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="201">
         <v>6</v>
       </c>
-      <c r="Z18" s="175"/>
-      <c r="AA18" s="175"/>
-      <c r="AB18" s="175"/>
-      <c r="AC18" s="175"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="177"/>
+      <c r="AC18" s="177"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
       <c r="AF18" s="67"/>
@@ -22243,38 +22193,38 @@
       </c>
       <c r="L19" s="112"/>
       <c r="M19" s="112"/>
-      <c r="N19" s="200" t="s">
+      <c r="N19" s="196" t="s">
         <v>203</v>
       </c>
-      <c r="O19" s="200"/>
-      <c r="P19" s="200"/>
-      <c r="Q19" s="197" t="s">
-        <v>90</v>
-      </c>
-      <c r="R19" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="S19" s="197" t="s">
-        <v>184</v>
-      </c>
-      <c r="T19" s="197" t="s">
+      <c r="O19" s="196"/>
+      <c r="P19" s="196"/>
+      <c r="Q19" s="199" t="s">
+        <v>90</v>
+      </c>
+      <c r="R19" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="S19" s="199" t="s">
+        <v>184</v>
+      </c>
+      <c r="T19" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="U19" s="197" t="s">
+      <c r="U19" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="V19" s="197" t="s">
+      <c r="V19" s="199" t="s">
         <v>97</v>
       </c>
-      <c r="W19" s="174"/>
-      <c r="X19" s="174"/>
-      <c r="Y19" s="197">
+      <c r="W19" s="176"/>
+      <c r="X19" s="176"/>
+      <c r="Y19" s="199">
         <v>15</v>
       </c>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="174"/>
-      <c r="AB19" s="174"/>
-      <c r="AC19" s="174"/>
+      <c r="Z19" s="176"/>
+      <c r="AA19" s="176"/>
+      <c r="AB19" s="176"/>
+      <c r="AC19" s="176"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
       <c r="AF19" s="67"/>
@@ -22312,30 +22262,30 @@
       </c>
       <c r="L20" s="60"/>
       <c r="M20" s="112"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R20" s="198"/>
-      <c r="S20" s="198"/>
-      <c r="T20" s="198" t="s">
+      <c r="N20" s="197"/>
+      <c r="O20" s="197"/>
+      <c r="P20" s="197"/>
+      <c r="Q20" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="U20" s="198" t="s">
+      <c r="U20" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="V20" s="198"/>
-      <c r="W20" s="196"/>
-      <c r="X20" s="196"/>
-      <c r="Y20" s="198">
+      <c r="V20" s="200"/>
+      <c r="W20" s="202"/>
+      <c r="X20" s="202"/>
+      <c r="Y20" s="200">
         <v>4</v>
       </c>
-      <c r="Z20" s="196"/>
-      <c r="AA20" s="196"/>
-      <c r="AB20" s="196"/>
-      <c r="AC20" s="196"/>
+      <c r="Z20" s="202"/>
+      <c r="AA20" s="202"/>
+      <c r="AB20" s="202"/>
+      <c r="AC20" s="202"/>
       <c r="AD20" s="67"/>
       <c r="AE20" s="67"/>
       <c r="AF20" s="67"/>
@@ -22373,30 +22323,30 @@
       </c>
       <c r="L21" s="112"/>
       <c r="M21" s="112"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R21" s="198"/>
-      <c r="S21" s="198"/>
-      <c r="T21" s="198" t="s">
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+      <c r="Q21" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="200"/>
+      <c r="S21" s="200"/>
+      <c r="T21" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="U21" s="198" t="s">
+      <c r="U21" s="200" t="s">
         <v>134</v>
       </c>
-      <c r="V21" s="198"/>
-      <c r="W21" s="196"/>
-      <c r="X21" s="196"/>
-      <c r="Y21" s="198">
+      <c r="V21" s="200"/>
+      <c r="W21" s="202"/>
+      <c r="X21" s="202"/>
+      <c r="Y21" s="200">
         <v>4</v>
       </c>
-      <c r="Z21" s="196"/>
-      <c r="AA21" s="196"/>
-      <c r="AB21" s="196"/>
-      <c r="AC21" s="196"/>
+      <c r="Z21" s="202"/>
+      <c r="AA21" s="202"/>
+      <c r="AB21" s="202"/>
+      <c r="AC21" s="202"/>
       <c r="AD21" s="67"/>
       <c r="AE21" s="67"/>
       <c r="AF21" s="67"/>
@@ -22434,30 +22384,30 @@
       </c>
       <c r="L22" s="112"/>
       <c r="M22" s="112"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="201"/>
-      <c r="Q22" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R22" s="198"/>
-      <c r="S22" s="198"/>
-      <c r="T22" s="198" t="s">
+      <c r="N22" s="197"/>
+      <c r="O22" s="197"/>
+      <c r="P22" s="197"/>
+      <c r="Q22" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R22" s="200"/>
+      <c r="S22" s="200"/>
+      <c r="T22" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="U22" s="198" t="s">
+      <c r="U22" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="V22" s="198"/>
-      <c r="W22" s="196"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="198">
+      <c r="V22" s="200"/>
+      <c r="W22" s="202"/>
+      <c r="X22" s="202"/>
+      <c r="Y22" s="200">
         <v>8</v>
       </c>
-      <c r="Z22" s="196"/>
-      <c r="AA22" s="196"/>
-      <c r="AB22" s="196"/>
-      <c r="AC22" s="196"/>
+      <c r="Z22" s="202"/>
+      <c r="AA22" s="202"/>
+      <c r="AB22" s="202"/>
+      <c r="AC22" s="202"/>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
       <c r="AF22" s="67"/>
@@ -22495,30 +22445,30 @@
       </c>
       <c r="L23" s="60"/>
       <c r="M23" s="112"/>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="201"/>
-      <c r="Q23" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R23" s="198"/>
-      <c r="S23" s="198"/>
-      <c r="T23" s="198" t="s">
+      <c r="N23" s="197"/>
+      <c r="O23" s="197"/>
+      <c r="P23" s="197"/>
+      <c r="Q23" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R23" s="200"/>
+      <c r="S23" s="200"/>
+      <c r="T23" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="U23" s="198" t="s">
+      <c r="U23" s="200" t="s">
         <v>85</v>
       </c>
-      <c r="V23" s="198"/>
-      <c r="W23" s="196"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="198">
+      <c r="V23" s="200"/>
+      <c r="W23" s="202"/>
+      <c r="X23" s="202"/>
+      <c r="Y23" s="200">
         <v>1</v>
       </c>
-      <c r="Z23" s="196"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
+      <c r="Z23" s="202"/>
+      <c r="AA23" s="202"/>
+      <c r="AB23" s="202"/>
+      <c r="AC23" s="202"/>
       <c r="AD23" s="67"/>
       <c r="AE23" s="67"/>
       <c r="AF23" s="67"/>
@@ -22556,30 +22506,30 @@
       </c>
       <c r="L24" s="64"/>
       <c r="M24" s="64"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="R24" s="198"/>
-      <c r="S24" s="198"/>
-      <c r="T24" s="198" t="s">
+      <c r="N24" s="197"/>
+      <c r="O24" s="197"/>
+      <c r="P24" s="197"/>
+      <c r="Q24" s="200" t="s">
+        <v>90</v>
+      </c>
+      <c r="R24" s="200"/>
+      <c r="S24" s="200"/>
+      <c r="T24" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="U24" s="198" t="s">
+      <c r="U24" s="200" t="s">
         <v>81</v>
       </c>
-      <c r="V24" s="198"/>
-      <c r="W24" s="196"/>
-      <c r="X24" s="196"/>
-      <c r="Y24" s="198">
+      <c r="V24" s="200"/>
+      <c r="W24" s="202"/>
+      <c r="X24" s="202"/>
+      <c r="Y24" s="200">
         <v>100</v>
       </c>
-      <c r="Z24" s="196"/>
-      <c r="AA24" s="196"/>
-      <c r="AB24" s="196"/>
-      <c r="AC24" s="196"/>
+      <c r="Z24" s="202"/>
+      <c r="AA24" s="202"/>
+      <c r="AB24" s="202"/>
+      <c r="AC24" s="202"/>
       <c r="AD24" s="67"/>
       <c r="AE24" s="67"/>
       <c r="AF24" s="67"/>
@@ -22617,22 +22567,22 @@
       </c>
       <c r="L25" s="64"/>
       <c r="M25" s="64"/>
-      <c r="N25" s="202"/>
-      <c r="O25" s="202"/>
-      <c r="P25" s="202"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="199"/>
-      <c r="W25" s="175"/>
-      <c r="X25" s="175"/>
-      <c r="Y25" s="199"/>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="175"/>
-      <c r="AB25" s="175"/>
-      <c r="AC25" s="175"/>
+      <c r="N25" s="198"/>
+      <c r="O25" s="198"/>
+      <c r="P25" s="198"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+      <c r="S25" s="201"/>
+      <c r="T25" s="201"/>
+      <c r="U25" s="201"/>
+      <c r="V25" s="201"/>
+      <c r="W25" s="177"/>
+      <c r="X25" s="177"/>
+      <c r="Y25" s="201"/>
+      <c r="Z25" s="177"/>
+      <c r="AA25" s="177"/>
+      <c r="AB25" s="177"/>
+      <c r="AC25" s="177"/>
       <c r="AD25" s="67"/>
       <c r="AE25" s="67"/>
       <c r="AF25" s="67"/>
@@ -22646,25 +22596,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AA11:AA18"/>
-    <mergeCell ref="AB11:AB18"/>
-    <mergeCell ref="AC11:AC18"/>
-    <mergeCell ref="AC19:AC25"/>
-    <mergeCell ref="W19:W25"/>
-    <mergeCell ref="X19:X25"/>
-    <mergeCell ref="Y19:Y25"/>
-    <mergeCell ref="Z19:Z25"/>
-    <mergeCell ref="AA19:AA25"/>
-    <mergeCell ref="AB19:AB25"/>
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="Q19:Q25"/>
-    <mergeCell ref="R19:R25"/>
-    <mergeCell ref="T19:T25"/>
-    <mergeCell ref="V19:V25"/>
-    <mergeCell ref="O19:O25"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="S19:S25"/>
-    <mergeCell ref="U19:U25"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -22681,6 +22612,25 @@
     <mergeCell ref="U11:U18"/>
     <mergeCell ref="Y11:Y18"/>
     <mergeCell ref="Z11:Z18"/>
+    <mergeCell ref="N19:N25"/>
+    <mergeCell ref="Q19:Q25"/>
+    <mergeCell ref="R19:R25"/>
+    <mergeCell ref="T19:T25"/>
+    <mergeCell ref="V19:V25"/>
+    <mergeCell ref="O19:O25"/>
+    <mergeCell ref="P19:P25"/>
+    <mergeCell ref="S19:S25"/>
+    <mergeCell ref="U19:U25"/>
+    <mergeCell ref="AA11:AA18"/>
+    <mergeCell ref="AB11:AB18"/>
+    <mergeCell ref="AC11:AC18"/>
+    <mergeCell ref="AC19:AC25"/>
+    <mergeCell ref="W19:W25"/>
+    <mergeCell ref="X19:X25"/>
+    <mergeCell ref="Y19:Y25"/>
+    <mergeCell ref="Z19:Z25"/>
+    <mergeCell ref="AA19:AA25"/>
+    <mergeCell ref="AB19:AB25"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -22690,16 +22640,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -22748,16 +22707,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -22772,15 +22730,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22793,12 +22751,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>